--- a/data/cars.xlsx
+++ b/data/cars.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -656,12 +656,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>3E11C15F-41AC-4C32-AFE2-9C5AD3046BF5</t>
+          <t>E7DDE5E8-3C28-44C7-81E3-0655C9AC903D</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -756,12 +756,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>D_PRAKASHBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>A1CBBDFA-A2AD-405F-8849-4C30E2D7A01D</t>
+          <t>75DE4879-925F-430B-B03C-B34C51A0A539</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -856,12 +856,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>B9646511-3EA2-4111-8A49-E06A506AE2A7</t>
+          <t>FC2A430C-764B-4891-822D-5D7367CF90B6</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -956,12 +956,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>AB70A551-E3C1-4EE5-B68B-CF7FB2DE55FD</t>
+          <t>5B7DD4BD-5D1F-48E8-895B-4DBA501349CD</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>E0D26686-19F9-4741-BA93-09703D4BACA1</t>
+          <t>02CC8F43-A3DA-48B8-AE4C-DE9AAFA8350F</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>3B2CFA26-BFF4-4B21-AFD8-7CD28023A158</t>
+          <t>40D85320-4423-46D0-9D1D-C5D8A9A42817</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0AB80C1E-28E8-423D-991A-A1C621099F93</t>
+          <t>8B725E2A-8CA1-4C62-8F56-C02564C26546</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>A54A9879-7622-4622-A9ED-79152551CEBE</t>
+          <t>D1DAAD76-D64E-43E6-A7B9-2C9E373372B8</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>D_PRAKASHBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>D8405394-A962-4969-8BC3-64723BC2E7F7</t>
+          <t>1F622FC2-54E1-452A-AC58-903CADB6E1EE</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>BD528FD5-4C5B-431B-8941-8231078CCCFE</t>
+          <t>FA3F91B9-052E-4FDD-971E-AED5460C4A2A</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>971C6AC1-FC4F-4446-B4F4-7E6DB89F2F84</t>
+          <t>123875BD-638D-4B71-ACFE-227BA0C0C0A4</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0380BD1A-82CD-4567-8048-4540A3F2331A</t>
+          <t>172A5A2B-AD4A-4750-A719-C13F0B1AAE25</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2B3D090D-1453-4D34-8C52-5165E793E525</t>
+          <t>B51840B8-17A9-4F1D-9FD7-0825D0D640CC</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>6759CDC0-EE53-440F-8B95-7059C379DC31</t>
+          <t>0D0B15AA-1140-4F22-A62B-9F074A44C47E</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>D_LAKSHMIFOR001</t>
+          <t>D_MANOJFOR001</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>BA6B016E-3ADE-456A-9CBB-64E3B7237D64</t>
+          <t>E3B1F2D4-B3F7-4A05-AB46-B2F94208A00C</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>985C57BB-5D96-4CE4-9E8D-528CD9E9EFC3</t>
+          <t>07FCB9D6-3424-40AB-B5E2-B6CBCFB98B4F</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>9F204825-8AA4-4264-A7DA-C24872E866B6</t>
+          <t>54E3F7FF-7AD8-47E7-B4B9-D17E1C80AB7E</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>03E2168A-5874-4B61-89A3-06A9661C2224</t>
+          <t>56F50A95-CD08-4B40-AAF4-3F015F66E85F</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>031500FA-E622-48A6-84C5-817D949B419F</t>
+          <t>3664CC5D-6772-46D4-BAD6-2892C2B1E2B4</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>1D20BD31-C763-4F92-B20A-3A9BAA478F11</t>
+          <t>462F7A9C-96C1-4391-B856-C29A4B5A5252</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0495F122-067D-4414-83C6-BB4641900B30</t>
+          <t>D8FEF77C-D76A-41DF-8650-1BC6EBBC759E</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>7EA1FDE3-481F-426C-A583-6253B355080E</t>
+          <t>1B266D14-3801-4663-B123-33B8574B811B</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>AB54C883-0560-4F73-A984-3F194A2FDA38</t>
+          <t>D088DB0D-E726-42D6-9027-61764CC8371B</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>D_VIJAYHON001</t>
+          <t>D_REVATHIHON001</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>07A81357-1950-4CED-8226-48578723C45B</t>
+          <t>E89C35B9-E4A2-4DA5-B9B0-6F025CE527D6</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>A33B3478-C22A-46D7-9178-A326233DF2B0</t>
+          <t>E1D24B1C-AC48-41A0-8252-98DA3FAA5B36</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>D_MANOJFOR001</t>
+          <t>D_KARTHIKFOR001</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>51C3D0A4-EC71-4109-893D-BE67ACDA177A</t>
+          <t>AF3D512C-650E-456E-980A-C476A1CD8146</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -3256,12 +3256,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>D_KARTHIKFOR001</t>
+          <t>D_MANOJFOR001</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>FCE5171D-8507-498A-AD32-CDD6881605A0</t>
+          <t>B1D39954-F61F-4255-B7A9-DF6D2EFC78BB</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>28CA27F2-67F6-4AAA-B26D-C0A29C436AF1</t>
+          <t>5127C56F-739C-485A-B30A-E9324A2A8AF4</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>5C81AC5A-5548-484E-B3A7-90961BF7E30B</t>
+          <t>EC7F16B9-0204-4A56-958B-95F1D8221AAB</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -3556,12 +3556,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>9D9D8B58-D334-4DD6-BCB0-C5A0EC8E66C5</t>
+          <t>FD1E2EFC-42AE-40B3-8A31-FDCAE3BC4379</t>
         </is>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -3656,12 +3656,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>3A145265-95F7-4FF8-9E92-D8855883A0E2</t>
+          <t>EC307845-5188-4E0B-AB56-A4D9C4FE0C1D</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>5A6B0C5A-C908-404C-A165-6827282A101F</t>
+          <t>3399541C-60E4-4C7E-A106-1DEC04C42D30</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>99107ED0-8F04-4B35-A2BE-17EBBB053207</t>
+          <t>84E3E981-C836-48E2-93B2-1A46DBD5405C</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>BE05FF65-33BA-4DB7-8C45-AD42808B7034</t>
+          <t>FAC4E934-F0CF-4FB1-B2D1-3D981AEC0D59</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>B5F59A5D-B4FD-44D2-A1ED-2C0CC60FB9F1</t>
+          <t>A7075CB3-ECA3-4EB3-9C2D-D63D221D9FA0</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>D_KARTHIKFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>39258D8C-0917-42E4-AFA7-1A6423FB05A7</t>
+          <t>66F23167-A648-44EA-9CBD-DEBEFD8633FD</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>355A2AC4-766A-4867-9623-94DD6AEF393D</t>
+          <t>A5EB20D2-BEC3-46EF-AA91-D97E436A89B9</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>26A6BD10-C0A0-434F-9E66-692B2B05D902</t>
+          <t>6B4F0642-2425-4780-A361-908803CEC3DE</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>C9EB092F-742F-4AF0-A5CB-F1A03FAA295E</t>
+          <t>9A977E3F-F6B3-42B1-B6F1-1D9131729672</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>9887DFC4-4263-4D8B-B560-86A094AA6128</t>
+          <t>68A3FED3-EA88-4746-8F20-8C6AC4B28444</t>
         </is>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>D5982BDB-BE5F-4381-8849-154E1209F400</t>
+          <t>B3EEB24C-765C-4D31-998F-EA497725EDBB</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -4756,12 +4756,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>D107E5B3-401F-4715-B858-4CAFB6284C50</t>
+          <t>20616C81-57EF-46D9-870F-1156B4B4495E</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4856,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>F21C1373-43B6-4941-B3D7-B5D3A2E391F5</t>
+          <t>DA1288BD-6111-4B28-8FB4-09AC1EA568CD</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>76BB1BA3-3EB3-401D-B66F-BA9262ACB2D2</t>
+          <t>3C157167-6DBD-4778-8EEE-E6F7D9172320</t>
         </is>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>C12704EA-5831-44C6-B7E7-DB31CE48A50E</t>
+          <t>8BE9F595-7315-48CA-851B-FB58CD7F13E1</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>D_SHANTHIBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>9A04D3B8-12EE-42E3-BD25-254931252452</t>
+          <t>E1F22C28-8B62-41AC-BB8A-3CA12AAFEF8F</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>42B8DE5E-EC36-4FEB-8EE9-9E500BEAFF8E</t>
+          <t>C4ACE025-58A5-43D8-8230-89B82F5FC013</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>70A92775-0F29-47D1-B3CC-73D35E38F5F2</t>
+          <t>5A538661-E65C-4979-82AC-27F43993101D</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>047ADAAC-8925-4BDC-ACE7-BCD75BBAABCA</t>
+          <t>2C1F76EE-D649-46DB-8891-C07868DA91C6</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>FD07FB1D-D374-4A92-9D46-1E1D6F652B2F</t>
+          <t>7D1B3F27-45F3-4AB6-9433-78BDB1BD1CD8</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>1E599C14-224D-4B51-9879-8E62F16A0CE8</t>
+          <t>ADA8C5F8-240C-46E8-9814-DCEADC4AEB4F</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>ECE30FFB-9845-4092-8465-E2C098FA20F1</t>
+          <t>B4D20FD1-1372-40A4-8477-FC10DD77B885</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>85A04959-22D9-48A1-A479-F9FC2C4ADB87</t>
+          <t>19575FC7-B788-4690-881C-729E99696DAD</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>C2C3A508-CFE4-441C-A3CB-9AABD4BDC4AE</t>
+          <t>34AFF20B-9138-43FB-9D6C-16FFFEE30808</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -6056,12 +6056,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>BBB77295-02EE-41A6-8939-2FDDCD17016E</t>
+          <t>96166BF4-8CD9-4A44-AAC7-6AC4A89DF833</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -6156,12 +6156,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>D_NEHAMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>0C5C4199-1F8F-4686-9228-05798B186758</t>
+          <t>6556BAB1-AB51-4036-B97A-0C8A70215E92</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>282DC667-5B9A-49A8-87E3-D420BFE11C03</t>
+          <t>62C17A1C-C114-4F19-9B60-4B5765133825</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>99BFF0EA-D869-4DBF-87CA-C67EE8AFB109</t>
+          <t>16D999EE-D060-41E5-8950-32C51057047D</t>
         </is>
       </c>
     </row>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -6456,12 +6456,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>0D21580D-5ED6-44E1-8670-AF50848CC227</t>
+          <t>55C7A75E-3A30-4BFB-A8CC-7628D5CA1D32</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2662ACE4-1A5B-4716-AD12-1FB5E4AEA6A3</t>
+          <t>D0871F48-085F-49B6-AB8E-C70928388936</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>808905E6-8CC3-48DC-BD01-F4EA0D12DE2A</t>
+          <t>87F0CBED-1BD9-442E-99EB-F6BB5E3F50FE</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>615404CA-0AF7-4741-9C38-BA849C815F0F</t>
+          <t>BFEC8028-7E7D-4B1C-9563-7CE6BFD8DD45</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>F400E1D6-54CB-42FC-A2F8-2BFE7377711C</t>
+          <t>3D4090B9-ED76-4700-A5E9-AB790A283BAF</t>
         </is>
       </c>
     </row>
@@ -6943,7 +6943,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -6956,12 +6956,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>661974F2-D3DD-4BE8-9FEF-C084E19B0E4B</t>
+          <t>AD1745A4-5280-447E-AF71-C3F8D4D0FE93</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>D_LAKSHMIFOR001</t>
+          <t>D_KARTHIKFOR001</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>DF07E6F2-950A-44AF-A209-115EF6B64D9B</t>
+          <t>BFD236A9-E611-4820-A7D2-69D014EAA48C</t>
         </is>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -7156,12 +7156,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>E9CBE235-776F-4C55-93BF-717D28046836</t>
+          <t>8DE9E876-21BD-4206-B1D4-B44DA3CD5001</t>
         </is>
       </c>
     </row>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>6615C79A-DC94-4486-9BC7-D8A129BB58C7</t>
+          <t>040DD762-191C-47C4-A5AD-9F485B7D62FC</t>
         </is>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>904859FC-9884-4250-8CD1-957FB22E91A1</t>
+          <t>17BB23F7-D7EB-49D5-8715-EB26FDB8014F</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>E65BDB8C-F66B-4C4E-9A45-88D02E4B698E</t>
+          <t>DDABC05D-8E99-4BFA-AA67-C9D9F4861FA3</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>3F249DEF-8114-46B5-B07F-7C6C523605EB</t>
+          <t>B8F32EF0-F0C0-4174-AF72-A36F1262EDA0</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>3487D4D8-2CD4-4922-8DB1-DC13024D047B</t>
+          <t>0BA86398-E3FD-442E-A999-9E230FBDC9CB</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>D_ARUNTAT002</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>C1B2572B-B2AC-44A1-869B-2F6A8A8344FD</t>
+          <t>0539112F-F95A-4509-8DC3-3D9AB34473E8</t>
         </is>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -7861,7 +7861,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>E4460245-2469-4110-9774-92A154CF8B5F</t>
+          <t>98505B79-1FDC-433A-BDFF-494EC4F243E7</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -7956,12 +7956,12 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>C37E1CC2-CA66-43A5-BC7C-69297B398B66</t>
+          <t>1D2F8EFC-42AA-4CDF-B9D8-B218BF51AED4</t>
         </is>
       </c>
     </row>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>E4217143-C6BE-4F0B-B7A7-59E8868CC0B4</t>
+          <t>42D886A5-286B-4873-A2E1-32AEAD7D9638</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>B6A71042-8701-4948-A5C3-7A9C52A17753</t>
+          <t>F9679534-3056-4F4E-A704-AE1D878C8FCA</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -8256,12 +8256,12 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>E4A27AE3-F9F8-4810-9C3F-C70770DD896A</t>
+          <t>7878650D-C981-46A1-B5AD-8BD971B5273B</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>8FB4C75C-73B5-41B9-A8CD-46978CA9715D</t>
+          <t>35F9013B-ADF5-4EC8-9B8E-E3A5084387DE</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>D13BF604-5D31-4C0D-8D33-A3C167C69F15</t>
+          <t>30223C44-86F1-4B2F-8189-52D069A73657</t>
         </is>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>D458B877-214F-4CF7-BE7E-89B48E5B5C79</t>
+          <t>5ACFDEFC-070B-4BD0-97D8-8D6D1AA5E6A2</t>
         </is>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>F75DC639-5D31-4FB2-94E7-9AF28CA12EAE</t>
+          <t>82FAAB2E-50F3-4686-959C-D505B33AFEF5</t>
         </is>
       </c>
     </row>
@@ -8743,7 +8743,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -8756,12 +8756,12 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>E6887121-5434-4B7E-9916-AE5315093A97</t>
+          <t>9435743F-2F5C-4364-8B82-181E468BFF9D</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -8856,12 +8856,12 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>BB469064-551B-4EB9-95A2-247110BF789D</t>
+          <t>61B175F4-97CA-48C7-AF99-E1E98256DC5E</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -8956,12 +8956,12 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_HARISHHON001</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>A9B456FE-FAB6-4DC4-B095-FDCF6A1CEA62</t>
+          <t>AB70F486-CF5E-4064-9469-1B4BD415E408</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -9056,12 +9056,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>4BA8A2E6-3BC3-43E6-85EF-F804C1CB0EE0</t>
+          <t>449E246C-5725-41A9-B343-932528845932</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -9156,12 +9156,12 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>B08A554D-F4F5-4424-B3BB-BC06FD55603B</t>
+          <t>5EBA10BB-9FEC-4BAE-81D6-05F756ED0A2E</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -9256,12 +9256,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>D_MANOJFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>B91E6B92-2682-4C2F-96EC-F3AA5DD146A4</t>
+          <t>21BA6E79-12EF-4BAB-8AA4-D4B21D038897</t>
         </is>
       </c>
     </row>
@@ -9343,7 +9343,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -9356,12 +9356,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>7514D6CE-CC96-4F57-9D7C-E8199CAF5DAF</t>
+          <t>0944152A-ED7B-4E13-975E-E17101BED794</t>
         </is>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -9456,12 +9456,12 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>DE5AF943-A5D5-4126-807E-F455C9D86759</t>
+          <t>AFFB19EB-29D2-4BDD-B90C-5EF0C0D06BFD</t>
         </is>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>82F290FF-72DB-4234-9523-88910C090E78</t>
+          <t>1C06100B-AC8F-4CF2-9AF2-F10E360DCAF5</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -9656,12 +9656,12 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>D_MANOJFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>DD3B0FA7-B297-4CB7-B4C7-9096C7955D86</t>
+          <t>9A6C06AB-7902-4A74-9256-6BF1CA647420</t>
         </is>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -9756,12 +9756,12 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>4897F34D-5A9F-46AE-A78B-6B7DF7E272EC</t>
+          <t>2F688AA5-B35B-4ABC-8828-51AD5A466789</t>
         </is>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>D_SHANTHIBMW001</t>
+          <t>D_PRAKASHBMW001</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>212A48DA-99D1-4149-8629-F60D0DCDB358</t>
+          <t>3CF6F89E-3437-4109-9937-9D668F1C6B18</t>
         </is>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>A13926E1-B586-40E8-B431-782FDE4BC4AE</t>
+          <t>E396B8F2-76E4-4235-A3BD-8EF9501FEA82</t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>3804246F-CBFC-4052-A289-0C7F8D76F83F</t>
+          <t>1EC530B3-0710-4395-81B6-81DD1007BF9D</t>
         </is>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -10156,12 +10156,12 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>A1CE8BC2-BFFD-437C-ACA0-D90B973DC3F3</t>
+          <t>DE798424-A293-4046-B28E-8FCE35A39E28</t>
         </is>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -10256,12 +10256,12 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>D_VIJAYHON001</t>
+          <t>D_REVATHIHON001</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>D0EAD263-381E-43F7-9800-D63740E51D92</t>
+          <t>55323C0C-C991-4E2B-B249-C5039352C717</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>B46A2A81-E1C3-49E0-8D84-2F360C267C25</t>
+          <t>8A1D689F-F063-439A-A36C-6472DB504149</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>9C90F013-0FCC-4170-AB1B-DC8D07022F64</t>
+          <t>5D0FCF76-A542-40A9-A78E-ECCD875EC96F</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>65319EBE-4DB9-4D77-8813-C7E1781ECA2B</t>
+          <t>493BAF27-D09C-4FB2-BBB9-8DDB3C3FAD2C</t>
         </is>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -10656,12 +10656,12 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>D_NEHAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>C93F34EA-E599-4363-81DD-36262781CD43</t>
+          <t>66B73AD2-4ECF-4F7F-8812-1B9523099F2A</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>690E5062-1334-446D-95CC-F9ADE808D861</t>
+          <t>17FABFA4-2B7E-48D4-A5B9-0490A6400FA7</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>572EE930-7128-48FA-99A4-5651AD917A23</t>
+          <t>5004C146-0F4A-4C55-B7DF-706887AEB251</t>
         </is>
       </c>
     </row>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>E350FA86-BE34-4CB2-8343-5211DDC033CB</t>
+          <t>0DD64EF9-E5A2-4C11-BEEE-FF92C8CCF533</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>652C42CE-56C1-4BD6-88C9-4D4E53CA46EE</t>
+          <t>852BA2A8-2EB4-47D3-965A-E27F6A40203B</t>
         </is>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -11156,12 +11156,12 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>17F19D44-858A-4B6D-AF87-2E86A0AF1522</t>
+          <t>D1047F01-3933-46BA-A125-52848D3C3AB4</t>
         </is>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -11256,12 +11256,12 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>EC81DBBA-5440-4579-8394-0260AC806770</t>
+          <t>863B6267-CDF3-4373-A46E-D71B7E7EA8F1</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -11361,7 +11361,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>F3B98ECE-0B70-4536-B704-8F7E8A8E5AA4</t>
+          <t>4B90043B-10E8-4865-91EC-55038D0AAE01</t>
         </is>
       </c>
     </row>
@@ -11443,7 +11443,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W110" t="n">
@@ -11456,12 +11456,12 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>B5CE83D4-471A-40CA-ADBB-6959AB052723</t>
+          <t>FC8883A7-E450-439E-9379-9A37BEE407BD</t>
         </is>
       </c>
     </row>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W111" t="n">
@@ -11556,12 +11556,12 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>83251328-66DF-4E37-997A-28BABDD8B593</t>
+          <t>C2A5565A-44CB-4205-A0F7-90DF3ECFC34E</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W112" t="n">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>883CF000-1AC8-41B7-B92A-A3640340B391</t>
+          <t>3FAF3DCE-A3AA-4861-88AE-732FC7ADAF82</t>
         </is>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -11756,12 +11756,12 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>5507DAD8-4783-4D9B-A4E6-E60522FBAA47</t>
+          <t>D6B45795-EEE0-4716-B7C1-EEB59901196B</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W114" t="n">
@@ -11856,12 +11856,12 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>DCBED8A4-A062-445F-8E33-2688DBF7C832</t>
+          <t>3CA1A51C-A032-4BAA-AB09-91A7A63432B5</t>
         </is>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -11956,12 +11956,12 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>D_PRAKASHBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>C4BE845D-C1BF-4386-9604-9A2BD6875A00</t>
+          <t>D2ABCFE1-A046-4034-A606-E663E2F27CCF</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12043,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -12056,12 +12056,12 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>9312202C-FBE9-41F7-A3D7-A002744F3D62</t>
+          <t>E48BC9A8-8730-4F61-8088-B5D38B11A0B2</t>
         </is>
       </c>
     </row>
@@ -12156,12 +12156,12 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>D_ARUNTAT002</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>79E0AAD1-6E95-4A8C-9E17-6333F9CABE43</t>
+          <t>F0BFB2D8-955A-41DF-B099-0A341EF81DBC</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W118" t="n">
@@ -12256,12 +12256,12 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>280373E2-8C11-4E10-9F8F-A76BC5589C52</t>
+          <t>0E5320B0-1DE8-44D7-850A-2A74932EC0C4</t>
         </is>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W119" t="n">
@@ -12356,12 +12356,12 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>7FC81EE6-7E9D-4688-B942-D53841DD1440</t>
+          <t>64511467-12DF-44E0-9322-948037047079</t>
         </is>
       </c>
     </row>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W120" t="n">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>24DF96C3-D70C-468B-8544-DF40B749660B</t>
+          <t>DCADC298-639A-415A-B01F-95617AE82A82</t>
         </is>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -12556,12 +12556,12 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>BF2B092A-67FB-482E-8271-B231A34BE13C</t>
+          <t>9EDED822-4986-42A4-8792-684FAC56140D</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -12656,12 +12656,12 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>9B4D1CE7-CE8B-48CC-B62B-7AD5AA17A270</t>
+          <t>EA20FCCB-0D8B-4F4F-B135-B1D413739C60</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W123" t="n">
@@ -12756,12 +12756,12 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>5C4342CF-F1A6-495C-B300-BA22EBB85733</t>
+          <t>FC40B12A-3188-42D4-843B-08C8557A703C</t>
         </is>
       </c>
     </row>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W124" t="n">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>637288F7-A165-467F-9196-0B4CB6FC5DB2</t>
+          <t>5DF05D15-B620-473A-ADCD-EC1A67836827</t>
         </is>
       </c>
     </row>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W125" t="n">
@@ -12956,12 +12956,12 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>1C31E1CD-85B0-4C35-8E7C-E7A86C066131</t>
+          <t>21D4C9A3-09A7-426E-95DF-02D545BDB5FB</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W126" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>BC0A6767-0D6F-4E7F-858A-0B278243447F</t>
+          <t>33048655-0159-498E-8B4C-1536A5754966</t>
         </is>
       </c>
     </row>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W127" t="n">
@@ -13156,12 +13156,12 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>705EA232-4559-4C5A-A877-EC7A742F552C</t>
+          <t>9EF742C1-FE7F-49F3-9331-0A02F6960E13</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W128" t="n">
@@ -13261,7 +13261,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>573B9E35-F9AE-4943-BB8A-74D143EA20BE</t>
+          <t>5A48A8C5-35E6-4D6F-B1D0-7B6B8FC4F584</t>
         </is>
       </c>
     </row>
@@ -13343,7 +13343,7 @@
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W129" t="n">
@@ -13361,7 +13361,7 @@
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>9A21D4D2-C05B-4B43-82E6-A73A0A4B4BC1</t>
+          <t>107251E9-121B-4E81-8B35-2A1308229F92</t>
         </is>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W130" t="n">
@@ -13456,12 +13456,12 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>D_NEHAMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>8EB30306-ECAD-4F26-BD94-24B2E9F1AC9F</t>
+          <t>123DE054-6E66-4CBA-8CF4-859D4ACDA6C4</t>
         </is>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>340767B9-7A67-4697-8451-EEBAB3BEFB74</t>
+          <t>1F32B9F4-1E01-4154-8AB1-2C72E465B4BC</t>
         </is>
       </c>
     </row>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>12BA59E3-1C74-46F3-BD6C-944FF41D31CD</t>
+          <t>07D64745-CF13-4896-9119-EE2EEB0B5277</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W133" t="n">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>890F99BA-0A64-483F-95B1-CF163C355172</t>
+          <t>737C68F6-F138-428A-9802-D5A8A52B0291</t>
         </is>
       </c>
     </row>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>0A692CED-0246-497C-ADE2-F4B7F5588C9B</t>
+          <t>A251EC32-2BA5-41D2-8D3B-11181B29E3E1</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W135" t="n">
@@ -13956,12 +13956,12 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>5F4BFC74-53B1-4255-99A8-1AE073DD9B4D</t>
+          <t>F53516DC-52E8-40D9-9D9B-AE6B351B597F</t>
         </is>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W136" t="n">
@@ -14056,12 +14056,12 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>B8E1BFCC-52B9-4F1D-B20D-727603ED56C6</t>
+          <t>22574029-F597-4F35-B4E8-B16D7C23A86A</t>
         </is>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W137" t="n">
@@ -14156,12 +14156,12 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>A921E9E0-74C8-4F2E-84A3-E1E3DBCA745D</t>
+          <t>005F55F1-C804-4315-8BC9-46962DA53391</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W138" t="n">
@@ -14261,7 +14261,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>92FD0731-BD3A-4C38-8457-6E71AC934368</t>
+          <t>A76208A2-D467-4A59-BFF4-826AF7C08983</t>
         </is>
       </c>
     </row>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W139" t="n">
@@ -14356,12 +14356,12 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>63E319C5-D287-4DA5-8133-A3E1C4ECBAA3</t>
+          <t>44B063A0-4F34-4908-A92B-5A5DB3E1BBE5</t>
         </is>
       </c>
     </row>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W140" t="n">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>8E33820F-9BB4-402E-A018-DFFB06FDFDF7</t>
+          <t>92420FA5-0482-4AE3-89B1-ED5FA2257054</t>
         </is>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W141" t="n">
@@ -14556,12 +14556,12 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>8A46A38F-6F79-4E60-9D84-C40F3F82BF1C</t>
+          <t>AF1357C3-B9D3-48A2-8388-1D94AFAF08D8</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>02E22B99-2CE7-433C-A586-E70E30497835</t>
+          <t>3044B269-D92E-429E-A687-9AF31D328527</t>
         </is>
       </c>
     </row>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W143" t="n">
@@ -14756,12 +14756,12 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2D4766D0-CD17-44F6-BD8B-3B1F3DB96716</t>
+          <t>42820A95-5DAD-412F-8FCF-E9E0B262D1A2</t>
         </is>
       </c>
     </row>
@@ -14856,12 +14856,12 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>FA845975-CB97-4243-B4B5-4F5BDCF18C13</t>
+          <t>10568036-F978-436A-9BD9-DC278F5E70CD</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W145" t="n">
@@ -14956,12 +14956,12 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>863C2D47-13ED-4CD2-8E8D-6141818117A5</t>
+          <t>9FDEE987-F950-4A93-A1BD-E5A8E84F2F9C</t>
         </is>
       </c>
     </row>
@@ -15043,7 +15043,7 @@
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W146" t="n">
@@ -15056,12 +15056,12 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>F49E1146-022E-48DA-B4BA-B3E3715147EE</t>
+          <t>F86D1DAF-EB89-4857-BFD1-0F0718445EFB</t>
         </is>
       </c>
     </row>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W147" t="n">
@@ -15156,12 +15156,12 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_HARISHHON001</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>C9886B83-9419-4DDC-9C98-C21DCF023E2D</t>
+          <t>3D2EF527-5DCD-4799-B20E-817323B9D96C</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W148" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>0BF7790B-1630-404E-87F9-E9DAEC16A78C</t>
+          <t>A24767E9-38F8-450F-B1C6-A99AACEE61DB</t>
         </is>
       </c>
     </row>
@@ -15356,12 +15356,12 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>ECB1B0DE-BECF-40EB-80B1-9D88F6386B2D</t>
+          <t>54E38A92-7098-47AA-9D01-E898E6158947</t>
         </is>
       </c>
     </row>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W150" t="n">
@@ -15456,12 +15456,12 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>6CF97BFF-5258-4980-812D-CDD8E749CF52</t>
+          <t>BF62F078-AADC-4F5D-8133-2B86CB3BBE47</t>
         </is>
       </c>
     </row>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W151" t="n">
@@ -15556,12 +15556,12 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>3A01D7B8-4F58-4C61-A6AC-13EA9CEE79AB</t>
+          <t>7C903AA5-96B4-46FC-8000-4BFCCE3B75A4</t>
         </is>
       </c>
     </row>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W152" t="n">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>B7ACA618-6D5B-4D80-8ECE-BFCABC4D45C5</t>
+          <t>C10B25E5-9C5B-45A9-8A4F-82E376DD0E7C</t>
         </is>
       </c>
     </row>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W153" t="n">
@@ -15756,12 +15756,12 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>44F42D3C-EF50-4F99-8277-626F9AB86E84</t>
+          <t>E2BF7B9C-2C74-4E4D-9E85-B379BBB18CE9</t>
         </is>
       </c>
     </row>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>40C7D576-6A9A-4558-8E59-F39760D7531B</t>
+          <t>98E81813-0B75-451A-964D-DF33D448C7D5</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W155" t="n">
@@ -15956,12 +15956,12 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>D_LAKSHMIFOR001</t>
+          <t>D_MANOJFOR001</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>D79B8A1B-FBBC-47E9-9733-312C16CAC356</t>
+          <t>22EEA59A-4A24-4D6A-8F79-B706C27BE75E</t>
         </is>
       </c>
     </row>
@@ -16043,7 +16043,7 @@
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W156" t="n">
@@ -16056,12 +16056,12 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>177B3B52-BA2B-4BC9-97A7-67D943BC615E</t>
+          <t>4A75E156-D367-43E5-B718-92AC77D4F44B</t>
         </is>
       </c>
     </row>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W157" t="n">
@@ -16156,12 +16156,12 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>D_PRAKASHBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>890F2F73-8C60-44D1-8A16-22EBFB250126</t>
+          <t>F68DEC70-C844-49F7-963C-06EE000D1D0B</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W158" t="n">
@@ -16256,12 +16256,12 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>85A3826F-3D50-48DF-A83E-E9C3EC9CDCF0</t>
+          <t>084B9CBB-EE64-4864-91DE-15904826772B</t>
         </is>
       </c>
     </row>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W159" t="n">
@@ -16356,12 +16356,12 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>0373D987-298B-4907-83BA-D091EEE95F9E</t>
+          <t>FD84C8B1-00C0-4005-B94E-CB123B4B26F5</t>
         </is>
       </c>
     </row>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W160" t="n">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>966AB70F-518F-4444-9D6F-8A393C72E0EB</t>
+          <t>F096F610-D749-4D92-9DC4-2BB7CE402AC0</t>
         </is>
       </c>
     </row>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W161" t="n">
@@ -16556,12 +16556,12 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>C34E360B-C5D5-4AA6-95F0-5437F6BAECCD</t>
+          <t>86F794AB-0B34-42A5-BA06-BC8B8C106EB1</t>
         </is>
       </c>
     </row>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W162" t="n">
@@ -16656,12 +16656,12 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>EFEE0538-EAFF-4799-B772-974586209773</t>
+          <t>317713C7-A28C-4230-B741-19F65583734D</t>
         </is>
       </c>
     </row>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W163" t="n">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>DC46A4C9-92CE-4393-B276-3B99E4C3D4E5</t>
+          <t>152C3582-8895-4ADF-9FF5-B2C760151449</t>
         </is>
       </c>
     </row>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W164" t="n">
@@ -16856,12 +16856,12 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>D_SURESHBMW001</t>
+          <t>D_SHANTHIBMW001</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>5A09BF6C-9C10-42A2-AD4C-38D9C08729BA</t>
+          <t>FC482E20-A912-4EE7-81B0-DECB08631CE3</t>
         </is>
       </c>
     </row>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W165" t="n">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>1D177C1B-EFE1-48A2-A2EA-B7CE7E04F121</t>
+          <t>F6500767-33F7-4E95-BE4C-1D6FAB44EA4B</t>
         </is>
       </c>
     </row>
@@ -17043,7 +17043,7 @@
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W166" t="n">
@@ -17056,12 +17056,12 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>97B5696E-73E1-43B7-899F-A832253068A3</t>
+          <t>7229D056-DCBA-4AE9-B241-1B28F1F88DC8</t>
         </is>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W167" t="n">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>9FE584F9-87E0-4DDB-917A-43FB8C0ECB47</t>
+          <t>C8A5B914-52F5-4C37-8AFC-614E7A8FC3A2</t>
         </is>
       </c>
     </row>
@@ -17256,12 +17256,12 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>97B115CF-EF1C-4341-8606-F15041D42047</t>
+          <t>8FCA889F-387A-4F6C-803F-360400B6953D</t>
         </is>
       </c>
     </row>
@@ -17343,7 +17343,7 @@
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W169" t="n">
@@ -17356,12 +17356,12 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>5D6FDD21-CAF2-46DB-8278-A29EFBD34646</t>
+          <t>7CA59F88-9BCA-4448-A6F7-C2998B0D2957</t>
         </is>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W170" t="n">
@@ -17461,7 +17461,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2D262F36-D9B1-4300-ACD8-60C3B992C079</t>
+          <t>37D31C22-B8B2-4AA1-98C6-F08CFB8BE4FB</t>
         </is>
       </c>
     </row>
@@ -17543,7 +17543,7 @@
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W171" t="n">
@@ -17561,7 +17561,7 @@
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>FD205189-CCEF-4C4D-AEE6-5B9738052131</t>
+          <t>B1F953F9-A0F7-4230-99F8-816336F7458C</t>
         </is>
       </c>
     </row>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W172" t="n">
@@ -17656,12 +17656,12 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>2080823F-9584-4B1C-A5CE-8FE21966D0A7</t>
+          <t>CA1121F0-6D7E-40F9-9362-6D5D726DE29B</t>
         </is>
       </c>
     </row>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W173" t="n">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>F3A030D9-5388-4C35-AE04-538EC1225B8A</t>
+          <t>65796479-E42D-4076-BA35-26DF5541BB7F</t>
         </is>
       </c>
     </row>
@@ -17843,7 +17843,7 @@
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W174" t="n">
@@ -17856,12 +17856,12 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_REVATHIHON001</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>C8446B88-DC97-409E-AE55-C8A1BECA64AA</t>
+          <t>4BA885FF-387F-42CD-AB41-30B9938D7BDA</t>
         </is>
       </c>
     </row>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W175" t="n">
@@ -17956,12 +17956,12 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_HARISHHON001</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>A75D3289-4C7A-4EC9-9FAB-BAD451EA8D0B</t>
+          <t>C8DCB401-9BBF-4486-88CD-2D2B0A2EF20C</t>
         </is>
       </c>
     </row>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W176" t="n">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>B9F4243C-68BB-4957-8941-0FCB774CC9EB</t>
+          <t>73D60385-4CCA-4187-A268-0850D0D07B2E</t>
         </is>
       </c>
     </row>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W177" t="n">
@@ -18156,12 +18156,12 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>D_MANOJFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>9D5E8D8E-E863-4D3C-9BC5-33377A182DA6</t>
+          <t>FF8B4D50-18A6-4CF5-A7D1-BF78F00CA0DD</t>
         </is>
       </c>
     </row>
@@ -18256,12 +18256,12 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>E4611D4D-6F56-497B-B984-4D8D0EC826C2</t>
+          <t>73CFA304-FD35-4F11-B6D9-F533C8BEBA9F</t>
         </is>
       </c>
     </row>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W179" t="n">
@@ -18356,12 +18356,12 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>A0E6012A-E1E9-426B-9003-BE94E1505CB5</t>
+          <t>A3346285-4427-40DF-BE97-298C4D9A1225</t>
         </is>
       </c>
     </row>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W180" t="n">
@@ -18456,12 +18456,12 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>355F708C-86C7-4EC9-A6AE-202162B456EB</t>
+          <t>1364DDAB-EF3B-4239-9BA0-1C5DE3CFCBE2</t>
         </is>
       </c>
     </row>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W181" t="n">
@@ -18556,12 +18556,12 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>BDC68111-D056-41CB-8612-1F1708C6A874</t>
+          <t>3DF0AEA5-39ED-4ED0-B426-9BFFEC2DD4A8</t>
         </is>
       </c>
     </row>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W182" t="n">
@@ -18656,12 +18656,12 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>5F74D993-E409-46AC-944B-A05EB8B84714</t>
+          <t>0D14D665-543E-425F-A83A-E552FE6CCF45</t>
         </is>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W183" t="n">
@@ -18756,12 +18756,12 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>63CA349E-4021-4E7A-A719-C7C1518A2785</t>
+          <t>7943FA0E-BA47-4710-880A-606294BFC73D</t>
         </is>
       </c>
     </row>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W184" t="n">
@@ -18856,12 +18856,12 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>269B6276-CD62-4521-86BA-BAFD93845591</t>
+          <t>DEAE43D9-2A11-4846-A1FD-100AD277106D</t>
         </is>
       </c>
     </row>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W185" t="n">
@@ -18961,7 +18961,7 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>0097C757-445E-41B0-B99D-14F5E4267F82</t>
+          <t>60ABE610-B6BF-4BC1-A295-886951E3C2E4</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       </c>
       <c r="V186" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W186" t="n">
@@ -19056,12 +19056,12 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>D_PRAKASHBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
         <is>
-          <t>8A70DD77-2D5E-4459-B610-3DAD61AF8C8B</t>
+          <t>F833203A-3A89-4DB9-8487-933738D4CEC0</t>
         </is>
       </c>
     </row>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="V187" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W187" t="n">
@@ -19156,12 +19156,12 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
         <is>
-          <t>5D7E6F59-804C-4744-A157-89C3AC61AF8D</t>
+          <t>B90F0461-AEE9-48C0-8F99-C5CD421E84DF</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W188" t="n">
@@ -19256,12 +19256,12 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z188" t="inlineStr">
         <is>
-          <t>8CA6073A-A047-4624-BD0E-15394DF3EF31</t>
+          <t>052A0B28-647F-4F28-BB69-1B19F435D8DC</t>
         </is>
       </c>
     </row>
@@ -19343,7 +19343,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W189" t="n">
@@ -19356,12 +19356,12 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>672AE1F7-8B6F-4EE3-AE43-666E35F9173D</t>
+          <t>A2853828-B380-4076-A172-EAD0020B7DB5</t>
         </is>
       </c>
     </row>
@@ -19443,7 +19443,7 @@
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W190" t="n">
@@ -19461,7 +19461,7 @@
       </c>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>D75988BC-3397-4A0E-BAA8-40AA22DFD99A</t>
+          <t>7A8DAB51-95EC-4193-84F3-0550FCF6D359</t>
         </is>
       </c>
     </row>
@@ -19543,7 +19543,7 @@
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W191" t="n">
@@ -19556,12 +19556,12 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>D_SHANTHIBMW001</t>
+          <t>D_PRAKASHBMW001</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>B9A1F413-2414-4F88-98AD-5D1689483B24</t>
+          <t>1CD59532-B787-43B8-A814-3A335291B249</t>
         </is>
       </c>
     </row>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W192" t="n">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="Z192" t="inlineStr">
         <is>
-          <t>81E52985-FE39-4B11-891B-64D3FA31F636</t>
+          <t>6E11C596-277B-474F-B44A-4071343D93F9</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W193" t="n">
@@ -19756,12 +19756,12 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
         <is>
-          <t>4D4C9CCA-D651-4EE5-A970-DBC985A7782D</t>
+          <t>DC4F3ADC-8129-42CD-86C6-68F42E8FE130</t>
         </is>
       </c>
     </row>
@@ -19843,7 +19843,7 @@
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W194" t="n">
@@ -19856,12 +19856,12 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>E3EDA800-8F6C-4380-9E9E-44DA292D2851</t>
+          <t>13C57595-AD33-4B97-B15B-0ED363B7F8C8</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W195" t="n">
@@ -19961,7 +19961,7 @@
       </c>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>2F1A2871-ED3E-49B7-9E03-C10EDB21F8C2</t>
+          <t>1E8BC134-BA5D-4BD8-9F13-B485E57E8F1B</t>
         </is>
       </c>
     </row>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W196" t="n">
@@ -20056,12 +20056,12 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>2FE1C339-8F4C-43AD-B117-8B26C35D2C54</t>
+          <t>35E61FFD-AC77-49C4-98E1-ABF9A6167ECB</t>
         </is>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W197" t="n">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>9C0B35F5-2778-4EAA-8EE9-4EC9E20CEB30</t>
+          <t>A688AC9A-6234-4B3E-A7BB-D6EE06E2EFFE</t>
         </is>
       </c>
     </row>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W198" t="n">
@@ -20256,12 +20256,12 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
         <is>
-          <t>C6F62600-67EA-43A2-831E-224AB0153012</t>
+          <t>7912D52F-0E1B-4A7D-98A9-A8C7AE11225F</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="V199" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W199" t="n">
@@ -20356,12 +20356,12 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>D_NEHAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
         <is>
-          <t>7FA5C235-D7EB-4B01-8D0C-367665247841</t>
+          <t>43977B95-C081-4797-9849-ECC281C574C7</t>
         </is>
       </c>
     </row>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W200" t="n">
@@ -20461,7 +20461,7 @@
       </c>
       <c r="Z200" t="inlineStr">
         <is>
-          <t>7E674132-E4C6-4A31-A539-0D6622687B3D</t>
+          <t>4EFA4F87-2B56-4329-AAE5-50BE9E8AED4C</t>
         </is>
       </c>
     </row>
@@ -20543,7 +20543,7 @@
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W201" t="n">
@@ -20556,12 +20556,12 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>35EDFD70-3B59-4AC0-BF94-8549666EBD45</t>
+          <t>479311DB-3A25-4B0B-AA77-28AF60AF9E63</t>
         </is>
       </c>
     </row>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W202" t="n">
@@ -20656,12 +20656,12 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
         <is>
-          <t>7155A578-5F99-466B-ABC4-9FF6560EAC31</t>
+          <t>C9CF1B72-1DB1-4A99-9120-589457572D84</t>
         </is>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W203" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
         <is>
-          <t>091C4C5B-2F5C-4072-AD9D-E0DEBC923440</t>
+          <t>F8D28961-449E-4DCB-8FAF-FC891B52E219</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="Z204" t="inlineStr">
         <is>
-          <t>C0EE1D43-BC08-48DD-BA16-1131C7DCA946</t>
+          <t>33E70F10-1336-405F-9711-36CC5779C17C</t>
         </is>
       </c>
     </row>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W205" t="n">
@@ -20956,12 +20956,12 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
         <is>
-          <t>19154E83-0383-46F0-B7DD-395F7A3FFBA0</t>
+          <t>53850B86-2878-4BE9-96DD-91DDA57965CD</t>
         </is>
       </c>
     </row>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W206" t="n">
@@ -21056,12 +21056,12 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>8FCC638B-A270-44DA-9EA1-0F15D6804576</t>
+          <t>24B40344-4F3B-43AC-89CB-9F68DB716102</t>
         </is>
       </c>
     </row>
@@ -21143,7 +21143,7 @@
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W207" t="n">
@@ -21156,12 +21156,12 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>C7D18F57-7927-4C9E-96E1-62213FF8ED9A</t>
+          <t>3CF35D34-25F9-4DED-BADB-D53996BD829B</t>
         </is>
       </c>
     </row>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W208" t="n">
@@ -21261,7 +21261,7 @@
       </c>
       <c r="Z208" t="inlineStr">
         <is>
-          <t>B845DECB-1A29-4292-BB24-B45B53F443FD</t>
+          <t>C3D80A99-9D98-4E45-9379-15B0368FE513</t>
         </is>
       </c>
     </row>
@@ -21343,7 +21343,7 @@
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W209" t="n">
@@ -21356,12 +21356,12 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z209" t="inlineStr">
         <is>
-          <t>5AE2967C-2D5F-47E9-B9CC-D657DC67DDF2</t>
+          <t>5515DB54-6CFF-4304-959D-2B3DAD0449AD</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="V210" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W210" t="n">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="Z210" t="inlineStr">
         <is>
-          <t>77F47A30-777D-45E5-B3E7-D947D37CBEB9</t>
+          <t>88875A70-59C2-4505-86EB-2879DAB9A324</t>
         </is>
       </c>
     </row>
@@ -21543,7 +21543,7 @@
       </c>
       <c r="V211" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W211" t="n">
@@ -21561,7 +21561,7 @@
       </c>
       <c r="Z211" t="inlineStr">
         <is>
-          <t>06DE6868-D3C6-41FB-B2BF-EB4B4D7985B6</t>
+          <t>06F2D94A-44F0-4B0F-A175-93892D0838EB</t>
         </is>
       </c>
     </row>
@@ -21643,7 +21643,7 @@
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W212" t="n">
@@ -21656,12 +21656,12 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z212" t="inlineStr">
         <is>
-          <t>DBF331A1-BC3D-40CF-8F87-2238AB562F58</t>
+          <t>0EF3AA59-16CF-4DAB-B37E-830B45896A28</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W213" t="n">
@@ -21756,12 +21756,12 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>172455BC-8B06-4963-8DCA-CE3CD8C4109C</t>
+          <t>5A768754-1152-44F9-A6AC-9D44CF1FE42C</t>
         </is>
       </c>
     </row>
@@ -21843,7 +21843,7 @@
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W214" t="n">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="Z214" t="inlineStr">
         <is>
-          <t>473FEE2A-1F3C-405F-98B4-7F1CA3D0D717</t>
+          <t>28EC3848-1182-4AF1-A620-A67C7AFFDD17</t>
         </is>
       </c>
     </row>
@@ -21961,7 +21961,7 @@
       </c>
       <c r="Z215" t="inlineStr">
         <is>
-          <t>5EC74959-624E-4FE6-A041-8508E72633AF</t>
+          <t>914270D7-6C0C-4428-A36A-0E3147881A4A</t>
         </is>
       </c>
     </row>
@@ -22043,7 +22043,7 @@
       </c>
       <c r="V216" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W216" t="n">
@@ -22061,7 +22061,7 @@
       </c>
       <c r="Z216" t="inlineStr">
         <is>
-          <t>FCC164FF-0C79-4E0E-B74D-906B0603F0BD</t>
+          <t>757280E4-275E-43E4-A61B-4E31FDE11DED</t>
         </is>
       </c>
     </row>
@@ -22143,7 +22143,7 @@
       </c>
       <c r="V217" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W217" t="n">
@@ -22156,12 +22156,12 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z217" t="inlineStr">
         <is>
-          <t>178E13ED-CFAA-488D-96DB-75FBF090FC86</t>
+          <t>838468CC-658E-4AA1-8139-1D90AC13818F</t>
         </is>
       </c>
     </row>
@@ -22243,7 +22243,7 @@
       </c>
       <c r="V218" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W218" t="n">
@@ -22256,12 +22256,12 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z218" t="inlineStr">
         <is>
-          <t>F751D125-DE77-4B3D-B015-94E169967C92</t>
+          <t>917508C8-B8E8-4D77-A888-0C1316561C42</t>
         </is>
       </c>
     </row>
@@ -22343,7 +22343,7 @@
       </c>
       <c r="V219" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W219" t="n">
@@ -22361,7 +22361,7 @@
       </c>
       <c r="Z219" t="inlineStr">
         <is>
-          <t>18D8441C-4818-4671-8407-206C42F2708D</t>
+          <t>53241956-8ADD-4063-9705-7A847A403773</t>
         </is>
       </c>
     </row>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="V220" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W220" t="n">
@@ -22461,7 +22461,7 @@
       </c>
       <c r="Z220" t="inlineStr">
         <is>
-          <t>6C11F0B1-026F-4431-96A8-118B88DFF86C</t>
+          <t>6383C776-E796-4CA1-B1EA-414B24F0FC6A</t>
         </is>
       </c>
     </row>
@@ -22543,7 +22543,7 @@
       </c>
       <c r="V221" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W221" t="n">
@@ -22556,12 +22556,12 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>D_SURESHBMW001</t>
+          <t>D_PRAKASHBMW001</t>
         </is>
       </c>
       <c r="Z221" t="inlineStr">
         <is>
-          <t>56658183-B00B-4494-8CFD-F5ED5CBB7CFE</t>
+          <t>E0026AF9-6CCE-42CD-B3E3-04F5B6444A11</t>
         </is>
       </c>
     </row>
@@ -22643,7 +22643,7 @@
       </c>
       <c r="V222" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W222" t="n">
@@ -22656,12 +22656,12 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z222" t="inlineStr">
         <is>
-          <t>990D2179-C568-488B-B967-1F2647349A99</t>
+          <t>9A1EDA2F-E222-4E9A-B84C-2CE7A735CB2F</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W223" t="n">
@@ -22756,12 +22756,12 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>73CFFA49-BD97-4960-A579-42867119F488</t>
+          <t>310D1D3E-3A99-47A9-86D1-8723CEF0F711</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W224" t="n">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="Z224" t="inlineStr">
         <is>
-          <t>4D90D904-BEF3-4D58-9B65-5BB85C1CD6BC</t>
+          <t>CB62A686-D1E2-49EE-8893-CE607B022BA0</t>
         </is>
       </c>
     </row>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="V225" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W225" t="n">
@@ -22956,12 +22956,12 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z225" t="inlineStr">
         <is>
-          <t>9E8C0D53-910A-406A-90AE-1547C03E636F</t>
+          <t>A1D4538F-C5B4-4F86-8C5F-9AC4B01C0D99</t>
         </is>
       </c>
     </row>
@@ -23043,7 +23043,7 @@
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W226" t="n">
@@ -23056,12 +23056,12 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z226" t="inlineStr">
         <is>
-          <t>2D1561AD-67E1-40AD-92F2-02C8407441DF</t>
+          <t>F5F2553D-DB1D-4A32-BCA4-15D32F5421EC</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W227" t="n">
@@ -23156,12 +23156,12 @@
       </c>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>D_VIJAYHON001</t>
+          <t>D_HARISHHON001</t>
         </is>
       </c>
       <c r="Z227" t="inlineStr">
         <is>
-          <t>96E35162-31E7-4390-8B9F-A7DACF83AFA3</t>
+          <t>6E342954-A937-40DB-A7FF-E8366D28F8D0</t>
         </is>
       </c>
     </row>
@@ -23243,7 +23243,7 @@
       </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W228" t="n">
@@ -23256,12 +23256,12 @@
       </c>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z228" t="inlineStr">
         <is>
-          <t>FA04323B-51DA-4133-ADCB-29277B6B60C0</t>
+          <t>DD743C7E-171C-4DDC-8DEC-2F4CCCF7324C</t>
         </is>
       </c>
     </row>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W229" t="n">
@@ -23356,12 +23356,12 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z229" t="inlineStr">
         <is>
-          <t>21A150E6-E774-4354-A0CF-56CA869AFA60</t>
+          <t>BF18AFE2-611C-476F-A8A1-2C399F158449</t>
         </is>
       </c>
     </row>
@@ -23443,7 +23443,7 @@
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W230" t="n">
@@ -23456,12 +23456,12 @@
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z230" t="inlineStr">
         <is>
-          <t>69732054-7C68-4EE4-8456-BD4EE6C2783A</t>
+          <t>5A5DB42F-8CBB-43F2-A4AE-AA7D79BB87C2</t>
         </is>
       </c>
     </row>
@@ -23556,12 +23556,12 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z231" t="inlineStr">
         <is>
-          <t>DA163E35-0F2B-425E-8269-D0F1C60590CD</t>
+          <t>05B4B083-9694-4A27-9987-CAA2F5C6F4DD</t>
         </is>
       </c>
     </row>
@@ -23643,7 +23643,7 @@
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W232" t="n">
@@ -23656,12 +23656,12 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>D_HARISHHON001</t>
+          <t>D_REVATHIHON001</t>
         </is>
       </c>
       <c r="Z232" t="inlineStr">
         <is>
-          <t>A214DEA4-D622-4976-AD35-E6635CCE8290</t>
+          <t>0707BE25-3C5A-4CCB-AA83-B03B0DED312A</t>
         </is>
       </c>
     </row>
@@ -23743,7 +23743,7 @@
       </c>
       <c r="V233" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W233" t="n">
@@ -23756,12 +23756,12 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z233" t="inlineStr">
         <is>
-          <t>DED5AAC7-E0EA-47BA-9144-1AF037DD7C44</t>
+          <t>2DCB28B1-4DF3-4BBA-80CD-42E12BA41378</t>
         </is>
       </c>
     </row>
@@ -23843,7 +23843,7 @@
       </c>
       <c r="V234" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W234" t="n">
@@ -23856,12 +23856,12 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z234" t="inlineStr">
         <is>
-          <t>86ED132B-CCD0-4C3E-AB63-B7E05517DE4B</t>
+          <t>A1CAF20A-91F7-44A6-8EB8-38DB431A2E2C</t>
         </is>
       </c>
     </row>
@@ -23943,7 +23943,7 @@
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W235" t="n">
@@ -23956,12 +23956,12 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z235" t="inlineStr">
         <is>
-          <t>929398D0-057B-47C1-939F-ED0957203A3F</t>
+          <t>2047F53B-AF56-4170-B0C4-1BD714071811</t>
         </is>
       </c>
     </row>
@@ -24056,12 +24056,12 @@
       </c>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z236" t="inlineStr">
         <is>
-          <t>5CC3A0A3-5609-4A97-82B7-5DF1CB4A559A</t>
+          <t>22837AB2-A85A-4EE2-8DE7-FCE0BBC7ED36</t>
         </is>
       </c>
     </row>
@@ -24143,7 +24143,7 @@
       </c>
       <c r="V237" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W237" t="n">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="Z237" t="inlineStr">
         <is>
-          <t>34F4F812-8D7D-4BBB-9C62-D9EC07713D76</t>
+          <t>CE112FEC-3D1D-44D7-BDA8-E9EDCCCEC2E3</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24243,7 @@
       </c>
       <c r="V238" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W238" t="n">
@@ -24256,12 +24256,12 @@
       </c>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z238" t="inlineStr">
         <is>
-          <t>7957AA3D-7B50-4E13-BFF7-F37E428A8EFC</t>
+          <t>4EC5B1AF-399E-49DB-8172-BBC57212A423</t>
         </is>
       </c>
     </row>
@@ -24343,7 +24343,7 @@
       </c>
       <c r="V239" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W239" t="n">
@@ -24361,7 +24361,7 @@
       </c>
       <c r="Z239" t="inlineStr">
         <is>
-          <t>BDBBB6EC-94B5-41E7-A654-F5F3C9C36F3D</t>
+          <t>4D671C2E-372A-4F96-B874-5AA5198D9DDB</t>
         </is>
       </c>
     </row>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="V240" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W240" t="n">
@@ -24456,12 +24456,12 @@
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>D_SURESHBMW001</t>
+          <t>D_SHANTHIBMW001</t>
         </is>
       </c>
       <c r="Z240" t="inlineStr">
         <is>
-          <t>51FF539B-64A7-4599-9BA7-3F6F376DA85A</t>
+          <t>B5F04636-95A0-4B63-87CD-F1D64F852D80</t>
         </is>
       </c>
     </row>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="V241" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W241" t="n">
@@ -24561,7 +24561,7 @@
       </c>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>B2A79245-FFB8-4E2A-836B-A60CA6685CA9</t>
+          <t>D90ADE81-7255-4A26-812C-DD4D04AF95F7</t>
         </is>
       </c>
     </row>
@@ -24643,7 +24643,7 @@
       </c>
       <c r="V242" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W242" t="n">
@@ -24656,12 +24656,12 @@
       </c>
       <c r="Y242" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>D6CE1878-5B12-4C04-BCFE-12653363227F</t>
+          <t>3A1A025B-3490-469D-BDCF-95D63F0500FD</t>
         </is>
       </c>
     </row>
@@ -24743,7 +24743,7 @@
       </c>
       <c r="V243" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W243" t="n">
@@ -24756,12 +24756,12 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z243" t="inlineStr">
         <is>
-          <t>A0E091A8-2B8F-4270-8739-8D3A632B2A3C</t>
+          <t>F166CF6F-02C3-4C3C-8801-90D62BC20249</t>
         </is>
       </c>
     </row>
@@ -24843,7 +24843,7 @@
       </c>
       <c r="V244" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W244" t="n">
@@ -24856,12 +24856,12 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z244" t="inlineStr">
         <is>
-          <t>47733A43-262C-4414-BBF0-25D071C6EE83</t>
+          <t>694D05C4-C292-4F19-AA56-A40B9CB4F6DA</t>
         </is>
       </c>
     </row>
@@ -24943,7 +24943,7 @@
       </c>
       <c r="V245" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W245" t="n">
@@ -24961,7 +24961,7 @@
       </c>
       <c r="Z245" t="inlineStr">
         <is>
-          <t>18C5C0A6-D983-4B6C-A44C-B163CAF3514C</t>
+          <t>DB08B475-91F5-45D8-80B2-BF41AA25A6FC</t>
         </is>
       </c>
     </row>
@@ -25043,7 +25043,7 @@
       </c>
       <c r="V246" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W246" t="n">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="Z246" t="inlineStr">
         <is>
-          <t>011434C8-7CBF-4D45-9130-C6BFDD31B48D</t>
+          <t>F4D299B7-E898-4CC0-BB43-B0270D250DAF</t>
         </is>
       </c>
     </row>
@@ -25143,7 +25143,7 @@
       </c>
       <c r="V247" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W247" t="n">
@@ -25161,7 +25161,7 @@
       </c>
       <c r="Z247" t="inlineStr">
         <is>
-          <t>D203B436-6203-4A19-8A6E-38B8A8DF05DC</t>
+          <t>0706EDCD-8E14-49D1-940F-9F2302513D58</t>
         </is>
       </c>
     </row>
@@ -25243,7 +25243,7 @@
       </c>
       <c r="V248" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W248" t="n">
@@ -25256,12 +25256,12 @@
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>D_PRAKASHBMW001</t>
+          <t>D_SURESHBMW001</t>
         </is>
       </c>
       <c r="Z248" t="inlineStr">
         <is>
-          <t>D695A6CA-C40F-467F-A767-CD96B6D6CD6B</t>
+          <t>B214C9B8-3C8E-4334-8366-C3ED48C6E38D</t>
         </is>
       </c>
     </row>
@@ -25343,7 +25343,7 @@
       </c>
       <c r="V249" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W249" t="n">
@@ -25361,7 +25361,7 @@
       </c>
       <c r="Z249" t="inlineStr">
         <is>
-          <t>EF2BE3DA-7579-4BAF-ABF4-7BD4899A00BB</t>
+          <t>341D3AC7-0BE9-40EC-9AB3-C0E7F2055B95</t>
         </is>
       </c>
     </row>
@@ -25443,7 +25443,7 @@
       </c>
       <c r="V250" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W250" t="n">
@@ -25456,12 +25456,12 @@
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z250" t="inlineStr">
         <is>
-          <t>51931EDF-74C2-453A-B119-D46397D9D99F</t>
+          <t>0EC3C6E9-538F-4DBA-AC28-69B601F7CAD2</t>
         </is>
       </c>
     </row>
@@ -25543,7 +25543,7 @@
       </c>
       <c r="V251" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W251" t="n">
@@ -25561,7 +25561,7 @@
       </c>
       <c r="Z251" t="inlineStr">
         <is>
-          <t>DAC6A4FD-952B-4404-A53C-46C807B880B0</t>
+          <t>1B98646D-27D2-450F-9459-B9545E1CFDCA</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="V252" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W252" t="n">
@@ -25656,12 +25656,12 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>B230B2DF-2135-4A42-86F9-ECCF62B77176</t>
+          <t>7EDE9B6A-E68E-4476-A9ED-FDA6E4A1C697</t>
         </is>
       </c>
     </row>
@@ -25743,7 +25743,7 @@
       </c>
       <c r="V253" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W253" t="n">
@@ -25756,12 +25756,12 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>FE6ED771-428F-4BE6-9FFB-EB6E319C3BA1</t>
+          <t>9D862FCD-223E-46EA-A544-97DEF7890AC5</t>
         </is>
       </c>
     </row>
@@ -25843,7 +25843,7 @@
       </c>
       <c r="V254" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W254" t="n">
@@ -25856,12 +25856,12 @@
       </c>
       <c r="Y254" t="inlineStr">
         <is>
-          <t>D_SHANTHIBMW001</t>
+          <t>D_PRAKASHBMW001</t>
         </is>
       </c>
       <c r="Z254" t="inlineStr">
         <is>
-          <t>D8CC97F5-1D7A-424D-8AF3-BCBECDFD08E0</t>
+          <t>3B1CFAEC-C03D-4AD3-879B-3EE15334C31D</t>
         </is>
       </c>
     </row>
@@ -25943,7 +25943,7 @@
       </c>
       <c r="V255" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W255" t="n">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="Z255" t="inlineStr">
         <is>
-          <t>E2079BBB-1571-4EF8-8A00-F4B2EFC5B672</t>
+          <t>658DF915-E21B-4057-AB64-7A948ADEE559</t>
         </is>
       </c>
     </row>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="V256" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W256" t="n">
@@ -26056,12 +26056,12 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>D_KARTHIKFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>94CD2A00-D368-4322-B120-63476B15D89E</t>
+          <t>FD8B6604-C762-43DA-93C8-86C6AE557B1E</t>
         </is>
       </c>
     </row>
@@ -26143,7 +26143,7 @@
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W257" t="n">
@@ -26156,12 +26156,12 @@
       </c>
       <c r="Y257" t="inlineStr">
         <is>
-          <t>D_MANOJFOR001</t>
+          <t>D_KARTHIKFOR001</t>
         </is>
       </c>
       <c r="Z257" t="inlineStr">
         <is>
-          <t>ED2BF60E-F45D-421D-BA76-EE4E1CA44860</t>
+          <t>87A1FCB7-4837-4FFE-A34E-C3D6A25443FF</t>
         </is>
       </c>
     </row>
@@ -26243,7 +26243,7 @@
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W258" t="n">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="Z258" t="inlineStr">
         <is>
-          <t>5F33D09B-C9F7-4E31-9B82-538D5E442A33</t>
+          <t>50DDD520-5A5C-41DD-9102-D0E91C05911C</t>
         </is>
       </c>
     </row>
@@ -26343,7 +26343,7 @@
       </c>
       <c r="V259" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W259" t="n">
@@ -26356,12 +26356,12 @@
       </c>
       <c r="Y259" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z259" t="inlineStr">
         <is>
-          <t>0F34D1CA-5C2D-4B76-9556-05669F358A54</t>
+          <t>27588B07-438A-41E9-B50D-A20E46B43F4A</t>
         </is>
       </c>
     </row>
@@ -26443,7 +26443,7 @@
       </c>
       <c r="V260" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W260" t="n">
@@ -26456,12 +26456,12 @@
       </c>
       <c r="Y260" t="inlineStr">
         <is>
-          <t>D_MANOJFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z260" t="inlineStr">
         <is>
-          <t>64B8B8CD-B5BE-416D-BF8F-E360714BC01E</t>
+          <t>B0D2633B-0545-45C1-B119-69725C6F0BC4</t>
         </is>
       </c>
     </row>
@@ -26543,7 +26543,7 @@
       </c>
       <c r="V261" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W261" t="n">
@@ -26561,7 +26561,7 @@
       </c>
       <c r="Z261" t="inlineStr">
         <is>
-          <t>2035FC12-E09E-4BA1-A58E-9E47A8B8E525</t>
+          <t>0AB73F95-6464-4064-8F55-D59D4A5C86EA</t>
         </is>
       </c>
     </row>
@@ -26643,7 +26643,7 @@
       </c>
       <c r="V262" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W262" t="n">
@@ -26656,12 +26656,12 @@
       </c>
       <c r="Y262" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z262" t="inlineStr">
         <is>
-          <t>0257266D-493A-4643-91D5-3BF3EFD13027</t>
+          <t>F3EE7FB7-BB33-46EA-8C0A-2CB6BF920E51</t>
         </is>
       </c>
     </row>
@@ -26743,7 +26743,7 @@
       </c>
       <c r="V263" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W263" t="n">
@@ -26756,12 +26756,12 @@
       </c>
       <c r="Y263" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z263" t="inlineStr">
         <is>
-          <t>73832AA4-7C3D-424C-9E38-27C7EDECAA42</t>
+          <t>1435503D-2763-44EA-8EE9-C1C8EDC556BC</t>
         </is>
       </c>
     </row>
@@ -26843,7 +26843,7 @@
       </c>
       <c r="V264" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W264" t="n">
@@ -26856,12 +26856,12 @@
       </c>
       <c r="Y264" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z264" t="inlineStr">
         <is>
-          <t>84CBE058-477A-48E2-BBF5-39531C171531</t>
+          <t>B8611AF7-AC8D-44D5-A546-C5F5CF161D86</t>
         </is>
       </c>
     </row>
@@ -26943,7 +26943,7 @@
       </c>
       <c r="V265" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W265" t="n">
@@ -26956,12 +26956,12 @@
       </c>
       <c r="Y265" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z265" t="inlineStr">
         <is>
-          <t>AAE85FB7-A6BB-43BC-A815-EBF1EA6768A6</t>
+          <t>DCE4E24E-695A-4AB3-AEAF-58AF651E32DD</t>
         </is>
       </c>
     </row>
@@ -27043,7 +27043,7 @@
       </c>
       <c r="V266" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W266" t="n">
@@ -27056,12 +27056,12 @@
       </c>
       <c r="Y266" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z266" t="inlineStr">
         <is>
-          <t>7217B28F-7F73-43F7-9538-05F2B8961A91</t>
+          <t>B925EC71-C683-45F6-B7EE-58FA0541AFDB</t>
         </is>
       </c>
     </row>
@@ -27143,7 +27143,7 @@
       </c>
       <c r="V267" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W267" t="n">
@@ -27156,12 +27156,12 @@
       </c>
       <c r="Y267" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z267" t="inlineStr">
         <is>
-          <t>2AEAC4CA-DF04-4309-AC92-B450E4585F11</t>
+          <t>23CD4A77-05AB-4E32-88E7-125402F2357E</t>
         </is>
       </c>
     </row>
@@ -27243,7 +27243,7 @@
       </c>
       <c r="V268" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W268" t="n">
@@ -27256,12 +27256,12 @@
       </c>
       <c r="Y268" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z268" t="inlineStr">
         <is>
-          <t>597EF25B-4A9B-42C0-8302-356FEFF9AED4</t>
+          <t>B854A792-D776-47FC-AEFF-52F8F749FA73</t>
         </is>
       </c>
     </row>
@@ -27343,7 +27343,7 @@
       </c>
       <c r="V269" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W269" t="n">
@@ -27356,12 +27356,12 @@
       </c>
       <c r="Y269" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z269" t="inlineStr">
         <is>
-          <t>64D8D79A-BB6D-4F37-B129-8180C5BB2A90</t>
+          <t>ED0F5B01-7B76-4799-8225-46F9C017FADF</t>
         </is>
       </c>
     </row>
@@ -27443,7 +27443,7 @@
       </c>
       <c r="V270" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W270" t="n">
@@ -27456,12 +27456,12 @@
       </c>
       <c r="Y270" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z270" t="inlineStr">
         <is>
-          <t>1E3D2759-3A18-43B2-9C60-AF331ACC838E</t>
+          <t>AC6BDD56-E160-4C8C-9C59-97AAB06DEEEE</t>
         </is>
       </c>
     </row>
@@ -27543,7 +27543,7 @@
       </c>
       <c r="V271" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W271" t="n">
@@ -27556,12 +27556,12 @@
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>D_KARTHIKFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z271" t="inlineStr">
         <is>
-          <t>263B4814-4B01-455F-B12C-1FAD5B9CED2C</t>
+          <t>C974131E-F7A8-42E5-AF6F-1AA66F3096F9</t>
         </is>
       </c>
     </row>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="V272" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W272" t="n">
@@ -27656,12 +27656,12 @@
       </c>
       <c r="Y272" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z272" t="inlineStr">
         <is>
-          <t>B2DC21E9-B9ED-4587-98FD-8B1DF5F63658</t>
+          <t>EC183595-E38E-4B0A-B9F5-55C103E83E81</t>
         </is>
       </c>
     </row>
@@ -27743,7 +27743,7 @@
       </c>
       <c r="V273" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W273" t="n">
@@ -27756,12 +27756,12 @@
       </c>
       <c r="Y273" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z273" t="inlineStr">
         <is>
-          <t>8074A372-0B37-4F42-918B-760D390EA613</t>
+          <t>7FBB3EE9-D77B-4F70-89B2-A2C129289814</t>
         </is>
       </c>
     </row>
@@ -27843,7 +27843,7 @@
       </c>
       <c r="V274" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W274" t="n">
@@ -27856,12 +27856,12 @@
       </c>
       <c r="Y274" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z274" t="inlineStr">
         <is>
-          <t>BF8C8A76-6AFB-472A-BDA2-FF31914DAF82</t>
+          <t>DD1C2ECA-3867-476A-85A2-B6FDDC2BF292</t>
         </is>
       </c>
     </row>
@@ -27943,7 +27943,7 @@
       </c>
       <c r="V275" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W275" t="n">
@@ -27956,12 +27956,12 @@
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z275" t="inlineStr">
         <is>
-          <t>DAB0F383-6B2E-4E59-B934-DFF59C9700B2</t>
+          <t>F9042B58-DF2F-4683-BB67-1F7FF4AB9610</t>
         </is>
       </c>
     </row>
@@ -28056,12 +28056,12 @@
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z276" t="inlineStr">
         <is>
-          <t>AC1614E6-0250-4986-9A4B-D332E665A4DD</t>
+          <t>AF3841C5-5378-41DC-97C4-BB6A1D9A050E</t>
         </is>
       </c>
     </row>
@@ -28143,7 +28143,7 @@
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W277" t="n">
@@ -28156,12 +28156,12 @@
       </c>
       <c r="Y277" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z277" t="inlineStr">
         <is>
-          <t>A787AFAA-74D6-448A-BED8-0C0CB1961DC6</t>
+          <t>B68F5342-AC39-4665-9B4D-5E207E3C6BD4</t>
         </is>
       </c>
     </row>
@@ -28243,7 +28243,7 @@
       </c>
       <c r="V278" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W278" t="n">
@@ -28256,12 +28256,12 @@
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z278" t="inlineStr">
         <is>
-          <t>0D26019C-7C78-4630-AE3A-0520C40D5DAE</t>
+          <t>99E0199B-723D-446F-8CE1-9E3A0916798B</t>
         </is>
       </c>
     </row>
@@ -28343,7 +28343,7 @@
       </c>
       <c r="V279" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W279" t="n">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="Z279" t="inlineStr">
         <is>
-          <t>ABD2F913-5F37-4DC9-B97D-441E1D37C837</t>
+          <t>1F5BA83F-64F7-46FA-8B54-86BC5F035B84</t>
         </is>
       </c>
     </row>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="V280" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W280" t="n">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="Z280" t="inlineStr">
         <is>
-          <t>9F3356DE-BD1D-4A0B-8E29-DE3A2EDF18BD</t>
+          <t>03CCECF9-4166-4500-896A-34E8D9910CD6</t>
         </is>
       </c>
     </row>
@@ -28543,7 +28543,7 @@
       </c>
       <c r="V281" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W281" t="n">
@@ -28556,12 +28556,12 @@
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z281" t="inlineStr">
         <is>
-          <t>0CE199F3-0AF7-429D-AA90-80A79233D4F0</t>
+          <t>84E584EC-CFEC-4BFE-9964-F2D43B0E3BAA</t>
         </is>
       </c>
     </row>
@@ -28643,7 +28643,7 @@
       </c>
       <c r="V282" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W282" t="n">
@@ -28656,12 +28656,12 @@
       </c>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z282" t="inlineStr">
         <is>
-          <t>7A42A820-6856-4F75-A7F9-6AF173858D15</t>
+          <t>37D3FD80-ABE8-4376-BEBD-4B26D343535B</t>
         </is>
       </c>
     </row>
@@ -28743,7 +28743,7 @@
       </c>
       <c r="V283" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W283" t="n">
@@ -28756,12 +28756,12 @@
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z283" t="inlineStr">
         <is>
-          <t>41011700-16C2-486C-9466-154BB211E451</t>
+          <t>ACEFCDCE-BDBE-49B4-8A37-E1D23B240873</t>
         </is>
       </c>
     </row>
@@ -28856,12 +28856,12 @@
       </c>
       <c r="Y284" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z284" t="inlineStr">
         <is>
-          <t>57F8B801-9176-48DD-85DE-6D0E5E4B73ED</t>
+          <t>1F73366E-55F0-490E-889E-7D191069F6DD</t>
         </is>
       </c>
     </row>
@@ -28943,7 +28943,7 @@
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W285" t="n">
@@ -28956,12 +28956,12 @@
       </c>
       <c r="Y285" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ASHATAT001</t>
         </is>
       </c>
       <c r="Z285" t="inlineStr">
         <is>
-          <t>ECE53545-EE63-4617-B568-93426310EA36</t>
+          <t>DC18238A-A829-4675-8B77-1C6626A42BCC</t>
         </is>
       </c>
     </row>
@@ -29043,7 +29043,7 @@
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W286" t="n">
@@ -29056,12 +29056,12 @@
       </c>
       <c r="Y286" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z286" t="inlineStr">
         <is>
-          <t>DEF49A98-2E0B-42C6-B195-F86571783650</t>
+          <t>95738AE7-621A-4564-890E-576DA6E91F25</t>
         </is>
       </c>
     </row>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W287" t="n">
@@ -29156,12 +29156,12 @@
       </c>
       <c r="Y287" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z287" t="inlineStr">
         <is>
-          <t>38B38587-E9E0-4389-8C13-95F32D2DEDA4</t>
+          <t>A494D938-F786-43A9-B205-FFD384B90A4E</t>
         </is>
       </c>
     </row>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="V288" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W288" t="n">
@@ -29256,12 +29256,12 @@
       </c>
       <c r="Y288" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z288" t="inlineStr">
         <is>
-          <t>AC765DA4-0357-4CA3-A5DC-4D568B1690F0</t>
+          <t>D67797C0-1252-4C60-AF2B-949B6605F6A6</t>
         </is>
       </c>
     </row>
@@ -29343,7 +29343,7 @@
       </c>
       <c r="V289" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W289" t="n">
@@ -29356,12 +29356,12 @@
       </c>
       <c r="Y289" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z289" t="inlineStr">
         <is>
-          <t>928913C5-1062-41DA-924F-759F14B68196</t>
+          <t>AF2BA037-D036-41E2-967D-488D339DD8F3</t>
         </is>
       </c>
     </row>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="V290" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W290" t="n">
@@ -29456,12 +29456,12 @@
       </c>
       <c r="Y290" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z290" t="inlineStr">
         <is>
-          <t>2F0CCFD4-D8D4-4B1C-9B42-3443E9EF1124</t>
+          <t>19170DE6-F813-46F0-B3C2-96D5D1E8CC89</t>
         </is>
       </c>
     </row>
@@ -29543,7 +29543,7 @@
       </c>
       <c r="V291" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W291" t="n">
@@ -29556,12 +29556,12 @@
       </c>
       <c r="Y291" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z291" t="inlineStr">
         <is>
-          <t>9108C0C1-1D6B-4366-BA77-A1977E2F495C</t>
+          <t>08E3F3BA-8377-4E49-9F71-2B50BCDE07F7</t>
         </is>
       </c>
     </row>
@@ -29643,7 +29643,7 @@
       </c>
       <c r="V292" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W292" t="n">
@@ -29656,12 +29656,12 @@
       </c>
       <c r="Y292" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z292" t="inlineStr">
         <is>
-          <t>0D7FEBAB-D8F9-40C1-8CD1-15B44EBAF3A9</t>
+          <t>75B09D7B-1586-4AFC-9BC0-5658ABC7AADA</t>
         </is>
       </c>
     </row>
@@ -29743,7 +29743,7 @@
       </c>
       <c r="V293" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W293" t="n">
@@ -29756,12 +29756,12 @@
       </c>
       <c r="Y293" t="inlineStr">
         <is>
-          <t>D_KARTHIKFOR001</t>
+          <t>D_LAKSHMIFOR001</t>
         </is>
       </c>
       <c r="Z293" t="inlineStr">
         <is>
-          <t>206A0655-A6D3-4616-9A96-8A673473DC3B</t>
+          <t>7DCDD228-40BE-4039-B9F2-EED2704497E1</t>
         </is>
       </c>
     </row>
@@ -29843,7 +29843,7 @@
       </c>
       <c r="V294" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W294" t="n">
@@ -29856,12 +29856,12 @@
       </c>
       <c r="Y294" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z294" t="inlineStr">
         <is>
-          <t>C03CD380-4B03-489F-BB87-D944B1263A3B</t>
+          <t>7046549F-2549-403B-B49A-CB67933452AF</t>
         </is>
       </c>
     </row>
@@ -29943,7 +29943,7 @@
       </c>
       <c r="V295" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W295" t="n">
@@ -29956,12 +29956,12 @@
       </c>
       <c r="Y295" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z295" t="inlineStr">
         <is>
-          <t>BD444A73-1E70-4359-9918-2F04E3FB4AB4</t>
+          <t>4F6C4580-F07A-4282-96A6-C1E82DE2B692</t>
         </is>
       </c>
     </row>
@@ -30056,12 +30056,12 @@
       </c>
       <c r="Y296" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z296" t="inlineStr">
         <is>
-          <t>FD805DF1-F20D-4F53-9687-71FF027DB8A5</t>
+          <t>D79913D6-6AB1-42E7-AC2F-287CB5A1D335</t>
         </is>
       </c>
     </row>
@@ -30143,7 +30143,7 @@
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W297" t="n">
@@ -30156,12 +30156,12 @@
       </c>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>D_ARUNTAT002</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z297" t="inlineStr">
         <is>
-          <t>784F4C62-4D88-4ECD-B39E-965ABBF122A3</t>
+          <t>6BD7BE40-07E6-4EAD-BE85-79DCE50FE17F</t>
         </is>
       </c>
     </row>
@@ -30243,7 +30243,7 @@
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W298" t="n">
@@ -30256,12 +30256,12 @@
       </c>
       <c r="Y298" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z298" t="inlineStr">
         <is>
-          <t>C3DFB3C9-9F78-414E-92C0-4B9058A64A2D</t>
+          <t>19A6734D-F3BC-4C73-92E7-F03DB0650949</t>
         </is>
       </c>
     </row>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="V299" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W299" t="n">
@@ -30356,12 +30356,12 @@
       </c>
       <c r="Y299" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z299" t="inlineStr">
         <is>
-          <t>59CBC138-6A19-4854-9A35-92D3A3DD7927</t>
+          <t>73A019B5-A57F-4961-AC48-26E5D9116C34</t>
         </is>
       </c>
     </row>
@@ -30443,7 +30443,7 @@
       </c>
       <c r="V300" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W300" t="n">
@@ -30456,12 +30456,12 @@
       </c>
       <c r="Y300" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z300" t="inlineStr">
         <is>
-          <t>27752F68-4769-480F-9D5D-8DADF6FC731E</t>
+          <t>61EBB08B-1900-49C4-AE3C-8D3B9BA4D4D9</t>
         </is>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="V301" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W301" t="n">
@@ -30561,7 +30561,7 @@
       </c>
       <c r="Z301" t="inlineStr">
         <is>
-          <t>4053D4C0-80F3-44CD-BF8B-424041BD4A1B</t>
+          <t>F32D179F-CBC6-472F-97BD-C341601F4CAA</t>
         </is>
       </c>
     </row>
@@ -30643,7 +30643,7 @@
       </c>
       <c r="V302" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W302" t="n">
@@ -30656,12 +30656,12 @@
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z302" t="inlineStr">
         <is>
-          <t>2F3FC109-CAE3-4985-94D9-CDC65414131D</t>
+          <t>13518A0B-F80E-458A-BF1F-EFCEB36307B6</t>
         </is>
       </c>
     </row>
@@ -30743,7 +30743,7 @@
       </c>
       <c r="V303" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W303" t="n">
@@ -30761,7 +30761,7 @@
       </c>
       <c r="Z303" t="inlineStr">
         <is>
-          <t>692A9B37-EE27-4914-ABF8-410F1C1EB7B4</t>
+          <t>ECD637F8-8D2F-42F1-9ABD-2A641254B292</t>
         </is>
       </c>
     </row>
@@ -30856,12 +30856,12 @@
       </c>
       <c r="Y304" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z304" t="inlineStr">
         <is>
-          <t>72A42036-F7D3-4050-BC9D-00EB2F74FFFE</t>
+          <t>3D8BBEBF-E738-40A3-8D01-7B7AB95DE05A</t>
         </is>
       </c>
     </row>
@@ -30943,7 +30943,7 @@
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W305" t="n">
@@ -30956,12 +30956,12 @@
       </c>
       <c r="Y305" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z305" t="inlineStr">
         <is>
-          <t>D6C5D461-2636-4B0D-99F9-986F88B65CC0</t>
+          <t>8549BF0C-D951-4FFD-A089-654CD2294DD7</t>
         </is>
       </c>
     </row>
@@ -31043,7 +31043,7 @@
       </c>
       <c r="V306" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W306" t="n">
@@ -31056,12 +31056,12 @@
       </c>
       <c r="Y306" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z306" t="inlineStr">
         <is>
-          <t>99303825-6C5D-4298-AD45-B0F34C576F05</t>
+          <t>847C6393-CE38-46DD-B87F-91AE43281003</t>
         </is>
       </c>
     </row>
@@ -31143,7 +31143,7 @@
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W307" t="n">
@@ -31156,12 +31156,12 @@
       </c>
       <c r="Y307" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z307" t="inlineStr">
         <is>
-          <t>8A48DDF2-8260-44CB-B7A6-879D10CC8FEE</t>
+          <t>C6AD6FA5-5A8F-45CA-A33C-5B1783D7AFC3</t>
         </is>
       </c>
     </row>
@@ -31243,7 +31243,7 @@
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W308" t="n">
@@ -31256,12 +31256,12 @@
       </c>
       <c r="Y308" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z308" t="inlineStr">
         <is>
-          <t>8253D2F5-562C-4149-B2E9-43A8BCFF9EBA</t>
+          <t>302F989E-DB0D-4CBB-9075-34B038C6511A</t>
         </is>
       </c>
     </row>
@@ -31343,7 +31343,7 @@
       </c>
       <c r="V309" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W309" t="n">
@@ -31356,12 +31356,12 @@
       </c>
       <c r="Y309" t="inlineStr">
         <is>
-          <t>D_LAKSHMIFOR001</t>
+          <t>D_MANOJFOR001</t>
         </is>
       </c>
       <c r="Z309" t="inlineStr">
         <is>
-          <t>212783A5-BE0A-450E-A64F-C059A92E9A04</t>
+          <t>B6FA5DCC-3B2B-4F76-B235-06D615954062</t>
         </is>
       </c>
     </row>
@@ -31443,7 +31443,7 @@
       </c>
       <c r="V310" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W310" t="n">
@@ -31456,12 +31456,12 @@
       </c>
       <c r="Y310" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z310" t="inlineStr">
         <is>
-          <t>34993FA2-91BC-44BB-9233-8B8DD2BCEB34</t>
+          <t>4F08B2DD-B750-4347-B3B8-E7631BD59BB4</t>
         </is>
       </c>
     </row>
@@ -31543,7 +31543,7 @@
       </c>
       <c r="V311" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W311" t="n">
@@ -31561,7 +31561,7 @@
       </c>
       <c r="Z311" t="inlineStr">
         <is>
-          <t>4900DDE3-670A-4BF9-8182-6016ADF134AB</t>
+          <t>F545EDB1-3523-40EB-A969-490D34458117</t>
         </is>
       </c>
     </row>
@@ -31643,7 +31643,7 @@
       </c>
       <c r="V312" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W312" t="n">
@@ -31656,12 +31656,12 @@
       </c>
       <c r="Y312" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z312" t="inlineStr">
         <is>
-          <t>81C3B203-62B4-4A92-9FC5-8C239570B57B</t>
+          <t>07A7F4BB-15A1-4818-83F2-4A7468B344D7</t>
         </is>
       </c>
     </row>
@@ -31743,7 +31743,7 @@
       </c>
       <c r="V313" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W313" t="n">
@@ -31756,12 +31756,12 @@
       </c>
       <c r="Y313" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z313" t="inlineStr">
         <is>
-          <t>AA249A7A-50CB-4754-B96B-6A8D6085754D</t>
+          <t>5A3F306A-9043-405D-A509-0179CA88DA7E</t>
         </is>
       </c>
     </row>
@@ -31843,7 +31843,7 @@
       </c>
       <c r="V314" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W314" t="n">
@@ -31856,12 +31856,12 @@
       </c>
       <c r="Y314" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z314" t="inlineStr">
         <is>
-          <t>B0D65BAD-1F81-493D-8104-652417C9018A</t>
+          <t>C420463F-C2C9-48B1-986D-05E6C20AEEA8</t>
         </is>
       </c>
     </row>
@@ -31943,7 +31943,7 @@
       </c>
       <c r="V315" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W315" t="n">
@@ -31956,12 +31956,12 @@
       </c>
       <c r="Y315" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z315" t="inlineStr">
         <is>
-          <t>E8D335D8-5D3D-4587-BB98-332970FA3900</t>
+          <t>128A01E5-1D03-4964-A1CE-1170DB122EE1</t>
         </is>
       </c>
     </row>
@@ -32043,7 +32043,7 @@
       </c>
       <c r="V316" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W316" t="n">
@@ -32056,12 +32056,12 @@
       </c>
       <c r="Y316" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z316" t="inlineStr">
         <is>
-          <t>E2AF706A-FA38-4C58-89E2-8428DC3055C1</t>
+          <t>D8B3BFA8-C5B9-44BD-81C4-EC4367067DAA</t>
         </is>
       </c>
     </row>
@@ -32143,7 +32143,7 @@
       </c>
       <c r="V317" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W317" t="n">
@@ -32156,12 +32156,12 @@
       </c>
       <c r="Y317" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z317" t="inlineStr">
         <is>
-          <t>06864936-F118-4DF4-9449-C88544D26269</t>
+          <t>80F34FEF-DF98-469A-BAF4-992FD1B575BC</t>
         </is>
       </c>
     </row>
@@ -32256,12 +32256,12 @@
       </c>
       <c r="Y318" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z318" t="inlineStr">
         <is>
-          <t>06E6133B-F59B-4A5C-8869-0683FD5C9285</t>
+          <t>304856C7-7719-41E8-9BC2-196D04DEE883</t>
         </is>
       </c>
     </row>
@@ -32356,12 +32356,12 @@
       </c>
       <c r="Y319" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z319" t="inlineStr">
         <is>
-          <t>74B33E11-2FFB-43FD-850A-FA8A48D8034F</t>
+          <t>EC55A051-C609-467C-9691-B619B236DEB8</t>
         </is>
       </c>
     </row>
@@ -32443,7 +32443,7 @@
       </c>
       <c r="V320" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W320" t="n">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="Z320" t="inlineStr">
         <is>
-          <t>A09BC4C4-0BF6-4A4E-B3EF-A4E65E940EE1</t>
+          <t>446373A5-C621-4E63-883D-DA435FE6133B</t>
         </is>
       </c>
     </row>
@@ -32543,7 +32543,7 @@
       </c>
       <c r="V321" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W321" t="n">
@@ -32556,12 +32556,12 @@
       </c>
       <c r="Y321" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z321" t="inlineStr">
         <is>
-          <t>46237366-3A57-44B1-A746-B1905970202A</t>
+          <t>F9379E1E-68EC-4B35-A9BC-588648B749C6</t>
         </is>
       </c>
     </row>
@@ -32643,7 +32643,7 @@
       </c>
       <c r="V322" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W322" t="n">
@@ -32656,12 +32656,12 @@
       </c>
       <c r="Y322" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z322" t="inlineStr">
         <is>
-          <t>972F4540-2A71-47A2-898D-3AC1A7B52620</t>
+          <t>82B5DDDD-0DD7-43E8-AEAD-92F73DD81DA2</t>
         </is>
       </c>
     </row>
@@ -32743,7 +32743,7 @@
       </c>
       <c r="V323" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W323" t="n">
@@ -32761,7 +32761,7 @@
       </c>
       <c r="Z323" t="inlineStr">
         <is>
-          <t>A9527F40-CBA7-4B9F-9372-16ACB499AE1B</t>
+          <t>8DD56076-F6DE-4F06-93CA-89BDB0E92A0D</t>
         </is>
       </c>
     </row>
@@ -32843,7 +32843,7 @@
       </c>
       <c r="V324" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W324" t="n">
@@ -32856,12 +32856,12 @@
       </c>
       <c r="Y324" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z324" t="inlineStr">
         <is>
-          <t>54D6271F-6002-4031-9BAA-1F18582CCCB2</t>
+          <t>F6B40825-F69B-41C0-AF85-E07F1F9CDB78</t>
         </is>
       </c>
     </row>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="V325" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W325" t="n">
@@ -32956,12 +32956,12 @@
       </c>
       <c r="Y325" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_SANJAYHYU001</t>
         </is>
       </c>
       <c r="Z325" t="inlineStr">
         <is>
-          <t>A17FE079-F394-4927-85CF-972A7E16F911</t>
+          <t>637A54FB-6A83-4C76-8DF0-FAD88B0C7E63</t>
         </is>
       </c>
     </row>
@@ -33043,7 +33043,7 @@
       </c>
       <c r="V326" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W326" t="n">
@@ -33056,12 +33056,12 @@
       </c>
       <c r="Y326" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z326" t="inlineStr">
         <is>
-          <t>C5B09920-A23C-4C6C-B72C-3E2568C5D0DB</t>
+          <t>B15F716B-13C9-4352-B8D7-D9248ED25BEC</t>
         </is>
       </c>
     </row>
@@ -33143,7 +33143,7 @@
       </c>
       <c r="V327" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W327" t="n">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="Z327" t="inlineStr">
         <is>
-          <t>9CF90AA4-5372-4467-8C91-048D889BD37A</t>
+          <t>936E0B13-F8A8-4FCF-8859-1129E43F8F15</t>
         </is>
       </c>
     </row>
@@ -33243,7 +33243,7 @@
       </c>
       <c r="V328" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W328" t="n">
@@ -33261,7 +33261,7 @@
       </c>
       <c r="Z328" t="inlineStr">
         <is>
-          <t>6CE18F8A-008C-461E-BEDD-40C5B42B2AE6</t>
+          <t>1F2615B2-C7BB-4A58-A884-B19D53F6A597</t>
         </is>
       </c>
     </row>
@@ -33343,7 +33343,7 @@
       </c>
       <c r="V329" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W329" t="n">
@@ -33356,12 +33356,12 @@
       </c>
       <c r="Y329" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z329" t="inlineStr">
         <is>
-          <t>3FB1A088-D893-4BD5-8267-0A2034ACDF7F</t>
+          <t>FD52A531-5E2B-4F6A-BD6A-920F49BA8F34</t>
         </is>
       </c>
     </row>
@@ -33443,7 +33443,7 @@
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W330" t="n">
@@ -33456,12 +33456,12 @@
       </c>
       <c r="Y330" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z330" t="inlineStr">
         <is>
-          <t>836569CB-6D4D-46D7-8578-7C6E6EC2F47B</t>
+          <t>C6C2AB4F-F113-4863-8E01-0266AC08D236</t>
         </is>
       </c>
     </row>
@@ -33543,7 +33543,7 @@
       </c>
       <c r="V331" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W331" t="n">
@@ -33556,12 +33556,12 @@
       </c>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z331" t="inlineStr">
         <is>
-          <t>49A44B69-1EE0-4F80-84EE-0B962D986F14</t>
+          <t>E2B49443-5B2C-4521-9623-274C670431BD</t>
         </is>
       </c>
     </row>
@@ -33643,7 +33643,7 @@
       </c>
       <c r="V332" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W332" t="n">
@@ -33656,12 +33656,12 @@
       </c>
       <c r="Y332" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z332" t="inlineStr">
         <is>
-          <t>CE995411-2307-4F2E-B233-6A895F31C281</t>
+          <t>56948027-A914-45D4-AE50-1949707EF6E6</t>
         </is>
       </c>
     </row>
@@ -33743,7 +33743,7 @@
       </c>
       <c r="V333" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W333" t="n">
@@ -33756,12 +33756,12 @@
       </c>
       <c r="Y333" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z333" t="inlineStr">
         <is>
-          <t>D99FEED6-ABEC-4D32-B06C-60FE03D6E528</t>
+          <t>6344A0A3-265C-4E3C-A0AD-477661E7F9EE</t>
         </is>
       </c>
     </row>
@@ -33843,7 +33843,7 @@
       </c>
       <c r="V334" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W334" t="n">
@@ -33856,12 +33856,12 @@
       </c>
       <c r="Y334" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z334" t="inlineStr">
         <is>
-          <t>32CA441A-7395-47AD-9254-13B08AA519C0</t>
+          <t>F8B21129-0A16-4C37-82AC-0E017176CCF3</t>
         </is>
       </c>
     </row>
@@ -33943,7 +33943,7 @@
       </c>
       <c r="V335" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W335" t="n">
@@ -33956,12 +33956,12 @@
       </c>
       <c r="Y335" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z335" t="inlineStr">
         <is>
-          <t>D67664CA-3118-4C09-89D6-7CBCBFF9A43E</t>
+          <t>FC8B2106-7B61-4755-A242-9978C68F9D81</t>
         </is>
       </c>
     </row>
@@ -34043,7 +34043,7 @@
       </c>
       <c r="V336" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W336" t="n">
@@ -34056,12 +34056,12 @@
       </c>
       <c r="Y336" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z336" t="inlineStr">
         <is>
-          <t>40A507CD-8D7F-4FB7-AC9F-370038E5B04C</t>
+          <t>7A11B80C-547C-4313-8005-41B29DC57753</t>
         </is>
       </c>
     </row>
@@ -34143,7 +34143,7 @@
       </c>
       <c r="V337" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W337" t="n">
@@ -34156,12 +34156,12 @@
       </c>
       <c r="Y337" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z337" t="inlineStr">
         <is>
-          <t>74BD1DB2-7CEB-4766-97A4-04F1F15446F5</t>
+          <t>E05C4DE6-F23F-44DE-9CAC-13CA1F47DB40</t>
         </is>
       </c>
     </row>
@@ -34243,7 +34243,7 @@
       </c>
       <c r="V338" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W338" t="n">
@@ -34256,12 +34256,12 @@
       </c>
       <c r="Y338" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z338" t="inlineStr">
         <is>
-          <t>6F6107ED-1DBA-4BD6-9AEE-188E7776A240</t>
+          <t>3BE7BE09-9490-46AE-89E3-8A481C26134A</t>
         </is>
       </c>
     </row>
@@ -34343,7 +34343,7 @@
       </c>
       <c r="V339" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W339" t="n">
@@ -34361,7 +34361,7 @@
       </c>
       <c r="Z339" t="inlineStr">
         <is>
-          <t>A67C944F-13C9-4F5D-BA02-B3019EA25760</t>
+          <t>CF8B447E-F5EE-402E-B8EF-948A33DD6DBC</t>
         </is>
       </c>
     </row>
@@ -34443,7 +34443,7 @@
       </c>
       <c r="V340" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W340" t="n">
@@ -34461,7 +34461,7 @@
       </c>
       <c r="Z340" t="inlineStr">
         <is>
-          <t>23D33A88-F998-429B-B198-9FD01D07FC76</t>
+          <t>103747C2-B97D-464F-84F2-F36D521FD49A</t>
         </is>
       </c>
     </row>
@@ -34543,7 +34543,7 @@
       </c>
       <c r="V341" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W341" t="n">
@@ -34556,12 +34556,12 @@
       </c>
       <c r="Y341" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z341" t="inlineStr">
         <is>
-          <t>6B71C8B6-B844-4DB9-B1C4-4DB691D01BF6</t>
+          <t>90520C46-1ABE-4C02-92EC-8691D5C14D7C</t>
         </is>
       </c>
     </row>
@@ -34643,7 +34643,7 @@
       </c>
       <c r="V342" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W342" t="n">
@@ -34656,12 +34656,12 @@
       </c>
       <c r="Y342" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z342" t="inlineStr">
         <is>
-          <t>A47065FB-1CCB-43C0-BE80-E7565330B046</t>
+          <t>F612973F-96C8-4FF7-BDE1-384B01A1FDEF</t>
         </is>
       </c>
     </row>
@@ -34756,12 +34756,12 @@
       </c>
       <c r="Y343" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z343" t="inlineStr">
         <is>
-          <t>C8473308-B47D-4458-A94D-3754D2F8FE3F</t>
+          <t>C13387E5-5D3E-4372-962F-FEEFD669085A</t>
         </is>
       </c>
     </row>
@@ -34843,7 +34843,7 @@
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W344" t="n">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="Z344" t="inlineStr">
         <is>
-          <t>B9FEE81B-4866-4CCB-8553-464B72901140</t>
+          <t>38884933-7915-4437-9EA0-19096A7DC62A</t>
         </is>
       </c>
     </row>
@@ -34956,12 +34956,12 @@
       </c>
       <c r="Y345" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z345" t="inlineStr">
         <is>
-          <t>9F25E7B3-FCC3-43FD-9D68-D355ED1C4C72</t>
+          <t>3C23181C-C6E8-47E9-AE41-344B64C72E37</t>
         </is>
       </c>
     </row>
@@ -35043,7 +35043,7 @@
       </c>
       <c r="V346" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W346" t="n">
@@ -35056,12 +35056,12 @@
       </c>
       <c r="Y346" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z346" t="inlineStr">
         <is>
-          <t>B04B128C-D8A4-44E3-87C0-7C93F8BCE803</t>
+          <t>4F5382E2-D33F-4EAE-815E-0FA85F4F3069</t>
         </is>
       </c>
     </row>
@@ -35143,7 +35143,7 @@
       </c>
       <c r="V347" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W347" t="n">
@@ -35156,12 +35156,12 @@
       </c>
       <c r="Y347" t="inlineStr">
         <is>
-          <t>D_PRIYAHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z347" t="inlineStr">
         <is>
-          <t>1CA4511D-28C1-4068-B04B-4C8A56FFF1EC</t>
+          <t>47F57F54-7980-4190-B80D-19F24AF9C0FC</t>
         </is>
       </c>
     </row>
@@ -35243,7 +35243,7 @@
       </c>
       <c r="V348" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W348" t="n">
@@ -35261,7 +35261,7 @@
       </c>
       <c r="Z348" t="inlineStr">
         <is>
-          <t>1FF738B5-1317-445D-8879-96F8D5470F98</t>
+          <t>0234263E-D3E9-4590-9F09-F4AA9ED7690F</t>
         </is>
       </c>
     </row>
@@ -35343,7 +35343,7 @@
       </c>
       <c r="V349" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W349" t="n">
@@ -35361,7 +35361,7 @@
       </c>
       <c r="Z349" t="inlineStr">
         <is>
-          <t>3E07F24C-5DBF-4F92-8113-9A991CBE5768</t>
+          <t>F82E7F95-C5DD-470C-BD78-616874E1D889</t>
         </is>
       </c>
     </row>
@@ -35443,7 +35443,7 @@
       </c>
       <c r="V350" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W350" t="n">
@@ -35461,7 +35461,7 @@
       </c>
       <c r="Z350" t="inlineStr">
         <is>
-          <t>08A09C9D-50DE-4EF8-ADA0-8246F14B66F2</t>
+          <t>B64B739D-B15B-46E3-A633-EB47655D8E4E</t>
         </is>
       </c>
     </row>
@@ -35543,7 +35543,7 @@
       </c>
       <c r="V351" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W351" t="n">
@@ -35556,12 +35556,12 @@
       </c>
       <c r="Y351" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z351" t="inlineStr">
         <is>
-          <t>3216F070-1F84-456E-8E3A-86AE499FDF63</t>
+          <t>2E59616C-4807-4771-8B73-A4AC6F487F1E</t>
         </is>
       </c>
     </row>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="V352" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W352" t="n">
@@ -35656,12 +35656,12 @@
       </c>
       <c r="Y352" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z352" t="inlineStr">
         <is>
-          <t>A73D9F50-C5F9-4D40-85E6-01991B3CAF5A</t>
+          <t>39EB95C2-D735-47A1-8006-6C56B5A3F97C</t>
         </is>
       </c>
     </row>
@@ -35743,7 +35743,7 @@
       </c>
       <c r="V353" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W353" t="n">
@@ -35756,12 +35756,12 @@
       </c>
       <c r="Y353" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z353" t="inlineStr">
         <is>
-          <t>3568AF80-7E2E-407B-A43E-5BA8E69C88AC</t>
+          <t>FFC8B633-C260-4A7B-80DA-EF00D5E701D8</t>
         </is>
       </c>
     </row>
@@ -35856,12 +35856,12 @@
       </c>
       <c r="Y354" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_SENTHILTOY001</t>
         </is>
       </c>
       <c r="Z354" t="inlineStr">
         <is>
-          <t>8C9A4410-0F2B-4EA8-8D3A-4254FE5F746E</t>
+          <t>925C742C-2079-463B-8D22-986D989228F3</t>
         </is>
       </c>
     </row>
@@ -35943,7 +35943,7 @@
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W355" t="n">
@@ -35956,12 +35956,12 @@
       </c>
       <c r="Y355" t="inlineStr">
         <is>
-          <t>D_REVATHIHON001</t>
+          <t>D_VIJAYHON001</t>
         </is>
       </c>
       <c r="Z355" t="inlineStr">
         <is>
-          <t>DEF3FFB7-7AA7-4749-91C5-A1AB7B7EAB21</t>
+          <t>C4A2569E-71C6-4EA5-9774-0BC91CE09FC9</t>
         </is>
       </c>
     </row>
@@ -36043,7 +36043,7 @@
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W356" t="n">
@@ -36056,12 +36056,12 @@
       </c>
       <c r="Y356" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z356" t="inlineStr">
         <is>
-          <t>066B9ABD-4AAC-43D4-AC01-15701027715A</t>
+          <t>CF8D2D20-67C0-428D-ADD1-65BF0F88940A</t>
         </is>
       </c>
     </row>
@@ -36143,7 +36143,7 @@
       </c>
       <c r="V357" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W357" t="n">
@@ -36156,12 +36156,12 @@
       </c>
       <c r="Y357" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z357" t="inlineStr">
         <is>
-          <t>796AD081-C0D3-4049-A656-D8694E27378B</t>
+          <t>F8D8C8D5-B161-433B-A8CB-F317D07B7ECB</t>
         </is>
       </c>
     </row>
@@ -36243,7 +36243,7 @@
       </c>
       <c r="V358" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W358" t="n">
@@ -36256,12 +36256,12 @@
       </c>
       <c r="Y358" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z358" t="inlineStr">
         <is>
-          <t>B36862C2-720C-445B-8E44-DA2E1D8B2260</t>
+          <t>6257F097-FE90-4013-8D1B-ACC92A78F0ED</t>
         </is>
       </c>
     </row>
@@ -36343,7 +36343,7 @@
       </c>
       <c r="V359" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W359" t="n">
@@ -36361,7 +36361,7 @@
       </c>
       <c r="Z359" t="inlineStr">
         <is>
-          <t>57D41A4E-4B97-4B0B-9CC1-866D5B53E449</t>
+          <t>A170B5F7-BD8B-4286-A1E2-C2D02DE37A58</t>
         </is>
       </c>
     </row>
@@ -36443,7 +36443,7 @@
       </c>
       <c r="V360" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W360" t="n">
@@ -36461,7 +36461,7 @@
       </c>
       <c r="Z360" t="inlineStr">
         <is>
-          <t>F18F77C6-71BD-4253-B0C9-DB44660B1E79</t>
+          <t>686C5DA4-E250-49D4-8B35-A8634DEF9D67</t>
         </is>
       </c>
     </row>
@@ -36543,7 +36543,7 @@
       </c>
       <c r="V361" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W361" t="n">
@@ -36556,12 +36556,12 @@
       </c>
       <c r="Y361" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z361" t="inlineStr">
         <is>
-          <t>6D443554-52C3-4AD4-B8FD-5B1790290BE5</t>
+          <t>B115C369-778E-40B4-8C1B-47FDA8F3145E</t>
         </is>
       </c>
     </row>
@@ -36643,7 +36643,7 @@
       </c>
       <c r="V362" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W362" t="n">
@@ -36661,7 +36661,7 @@
       </c>
       <c r="Z362" t="inlineStr">
         <is>
-          <t>3F573E0E-2F57-433F-AB40-4D5CCB78AE45</t>
+          <t>6C54473E-596B-4BA9-A88F-ABD872484C48</t>
         </is>
       </c>
     </row>
@@ -36743,7 +36743,7 @@
       </c>
       <c r="V363" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W363" t="n">
@@ -36761,7 +36761,7 @@
       </c>
       <c r="Z363" t="inlineStr">
         <is>
-          <t>9CA40B23-F143-456C-9CC8-6E18EC59993D</t>
+          <t>52610D35-815A-493B-8E9B-2E0542116F7C</t>
         </is>
       </c>
     </row>
@@ -36856,12 +36856,12 @@
       </c>
       <c r="Y364" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z364" t="inlineStr">
         <is>
-          <t>1E3412E7-DC23-4293-8866-E4B580A27E1B</t>
+          <t>8E682CD2-1823-4A68-BC84-87F157464613</t>
         </is>
       </c>
     </row>
@@ -36943,7 +36943,7 @@
       </c>
       <c r="V365" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W365" t="n">
@@ -36961,7 +36961,7 @@
       </c>
       <c r="Z365" t="inlineStr">
         <is>
-          <t>D034E4F5-4C00-4AC9-BEC6-969BA3D64E1A</t>
+          <t>D28B92D8-B858-4779-A1C7-92D61A82EE1F</t>
         </is>
       </c>
     </row>
@@ -37043,7 +37043,7 @@
       </c>
       <c r="V366" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W366" t="n">
@@ -37056,12 +37056,12 @@
       </c>
       <c r="Y366" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z366" t="inlineStr">
         <is>
-          <t>21ED4AB2-08DC-4E9D-8224-765FBED68A06</t>
+          <t>282C509F-537C-4CFD-8DC5-E8EDC5D76FCA</t>
         </is>
       </c>
     </row>
@@ -37143,7 +37143,7 @@
       </c>
       <c r="V367" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W367" t="n">
@@ -37156,12 +37156,12 @@
       </c>
       <c r="Y367" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z367" t="inlineStr">
         <is>
-          <t>1853DA8D-B655-436E-B03A-3C0301258862</t>
+          <t>168E0167-5E04-4E9A-8B57-C4D698152587</t>
         </is>
       </c>
     </row>
@@ -37243,7 +37243,7 @@
       </c>
       <c r="V368" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W368" t="n">
@@ -37261,7 +37261,7 @@
       </c>
       <c r="Z368" t="inlineStr">
         <is>
-          <t>29B3774A-EAD1-43FF-966B-E5B2D218514C</t>
+          <t>179141BB-1FAA-4530-8AB9-0AFD42AB3CEA</t>
         </is>
       </c>
     </row>
@@ -37343,7 +37343,7 @@
       </c>
       <c r="V369" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W369" t="n">
@@ -37361,7 +37361,7 @@
       </c>
       <c r="Z369" t="inlineStr">
         <is>
-          <t>E52B74D4-574C-4F7A-8EDB-3FDB2A6178A6</t>
+          <t>4D7B707F-6A52-415F-A399-A472942B3CD8</t>
         </is>
       </c>
     </row>
@@ -37443,7 +37443,7 @@
       </c>
       <c r="V370" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W370" t="n">
@@ -37456,12 +37456,12 @@
       </c>
       <c r="Y370" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z370" t="inlineStr">
         <is>
-          <t>2F0D3BF6-DC6C-4487-85D7-DF52C15C6065</t>
+          <t>EA27201E-64A7-4625-987E-CDCA9CC1914B</t>
         </is>
       </c>
     </row>
@@ -37543,7 +37543,7 @@
       </c>
       <c r="V371" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W371" t="n">
@@ -37556,12 +37556,12 @@
       </c>
       <c r="Y371" t="inlineStr">
         <is>
-          <t>D_SANJAYHYU001</t>
+          <t>D_RAJESHHYU001</t>
         </is>
       </c>
       <c r="Z371" t="inlineStr">
         <is>
-          <t>E8C372ED-D367-4682-A2D6-0DAA3709E1CD</t>
+          <t>4486E7EE-95A4-4009-8E43-1F94348B3057</t>
         </is>
       </c>
     </row>
@@ -37656,12 +37656,12 @@
       </c>
       <c r="Y372" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z372" t="inlineStr">
         <is>
-          <t>EAE743AE-13AF-4F7B-9EEE-F7CEEB9D7E58</t>
+          <t>4FEC2907-4687-4FC1-AFDF-7AFE8EABBE7C</t>
         </is>
       </c>
     </row>
@@ -37743,7 +37743,7 @@
       </c>
       <c r="V373" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W373" t="n">
@@ -37756,12 +37756,12 @@
       </c>
       <c r="Y373" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z373" t="inlineStr">
         <is>
-          <t>D487A74E-DCAF-4085-B26B-A054150B59E9</t>
+          <t>4B15D97B-E03A-4AAC-A9A8-D3706A89DE41</t>
         </is>
       </c>
     </row>
@@ -37843,7 +37843,7 @@
       </c>
       <c r="V374" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W374" t="n">
@@ -37856,12 +37856,12 @@
       </c>
       <c r="Y374" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z374" t="inlineStr">
         <is>
-          <t>F6534AFF-3127-4F84-8180-8E47CF64A244</t>
+          <t>6E596E6D-8AFC-460F-981C-10E43B61417E</t>
         </is>
       </c>
     </row>
@@ -37943,7 +37943,7 @@
       </c>
       <c r="V375" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W375" t="n">
@@ -37956,12 +37956,12 @@
       </c>
       <c r="Y375" t="inlineStr">
         <is>
-          <t>D_ARUNTAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z375" t="inlineStr">
         <is>
-          <t>B6C038E9-713A-4813-B957-43C0177CA61A</t>
+          <t>77B23DBF-D020-493A-AC55-8161AEA035D3</t>
         </is>
       </c>
     </row>
@@ -38043,7 +38043,7 @@
       </c>
       <c r="V376" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W376" t="n">
@@ -38056,12 +38056,12 @@
       </c>
       <c r="Y376" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z376" t="inlineStr">
         <is>
-          <t>1106B200-515E-4996-A5F7-F615CA7C9465</t>
+          <t>75E24C28-46C5-4DAF-B5B0-CFCBB52EC3FB</t>
         </is>
       </c>
     </row>
@@ -38143,7 +38143,7 @@
       </c>
       <c r="V377" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W377" t="n">
@@ -38156,12 +38156,12 @@
       </c>
       <c r="Y377" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z377" t="inlineStr">
         <is>
-          <t>617F4B34-A811-4613-9F7C-BBC2F5E45E07</t>
+          <t>3B4E91B2-7623-4456-8491-3AE0922A8A4F</t>
         </is>
       </c>
     </row>
@@ -38243,7 +38243,7 @@
       </c>
       <c r="V378" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W378" t="n">
@@ -38256,12 +38256,12 @@
       </c>
       <c r="Y378" t="inlineStr">
         <is>
-          <t>D_KAVITHAHYU001</t>
+          <t>D_PRIYAHYU001</t>
         </is>
       </c>
       <c r="Z378" t="inlineStr">
         <is>
-          <t>92A508EA-4248-4BAE-9DC8-2C06991172F8</t>
+          <t>96113117-1A19-4D09-8FDC-666373D94249</t>
         </is>
       </c>
     </row>
@@ -38343,7 +38343,7 @@
       </c>
       <c r="V379" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W379" t="n">
@@ -38356,12 +38356,12 @@
       </c>
       <c r="Y379" t="inlineStr">
         <is>
-          <t>D_ASHATAT001</t>
+          <t>D_BALAJITAT001</t>
         </is>
       </c>
       <c r="Z379" t="inlineStr">
         <is>
-          <t>EBE4E851-6D96-4839-9138-DCB6E153EC8B</t>
+          <t>34D2F5A9-5E84-47F7-B9D8-273ED9948E18</t>
         </is>
       </c>
     </row>
@@ -38443,7 +38443,7 @@
       </c>
       <c r="V380" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W380" t="n">
@@ -38456,12 +38456,12 @@
       </c>
       <c r="Y380" t="inlineStr">
         <is>
-          <t>D_RAJESHHYU001</t>
+          <t>D_KAVITHAHYU001</t>
         </is>
       </c>
       <c r="Z380" t="inlineStr">
         <is>
-          <t>9945B46E-9334-402F-971C-92ACE2A4FBB7</t>
+          <t>27A0931E-A880-4C68-B3E4-6DA466CBDF7F</t>
         </is>
       </c>
     </row>
@@ -38543,7 +38543,7 @@
       </c>
       <c r="V381" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W381" t="n">
@@ -38561,7 +38561,7 @@
       </c>
       <c r="Z381" t="inlineStr">
         <is>
-          <t>98240F7C-64EE-476E-A786-317B7329CAA3</t>
+          <t>9C2A20D5-CA34-4830-BA2A-A97E20EE0CB4</t>
         </is>
       </c>
     </row>
@@ -38643,7 +38643,7 @@
       </c>
       <c r="V382" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W382" t="n">
@@ -38656,12 +38656,12 @@
       </c>
       <c r="Y382" t="inlineStr">
         <is>
-          <t>D_ARUNTAT002</t>
+          <t>D_ARUNTAT001</t>
         </is>
       </c>
       <c r="Z382" t="inlineStr">
         <is>
-          <t>A0E9D892-0E15-4292-A514-C207EFB1C25F</t>
+          <t>F87FB4D1-C92B-46FB-9CCF-621F6FBE5131</t>
         </is>
       </c>
     </row>
@@ -38743,7 +38743,7 @@
       </c>
       <c r="V383" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W383" t="n">
@@ -38756,12 +38756,12 @@
       </c>
       <c r="Y383" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z383" t="inlineStr">
         <is>
-          <t>DE688D48-45A1-410F-AE56-4D284492A966</t>
+          <t>244E599F-F4A9-4B93-B0F8-D26A0E5E2488</t>
         </is>
       </c>
     </row>
@@ -38843,7 +38843,7 @@
       </c>
       <c r="V384" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W384" t="n">
@@ -38856,12 +38856,12 @@
       </c>
       <c r="Y384" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z384" t="inlineStr">
         <is>
-          <t>22C1D5F6-821F-473A-8517-2AAFA13B4FC9</t>
+          <t>1314E96F-E674-4766-96C5-EB2FBE47E9D3</t>
         </is>
       </c>
     </row>
@@ -38943,7 +38943,7 @@
       </c>
       <c r="V385" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W385" t="n">
@@ -38956,12 +38956,12 @@
       </c>
       <c r="Y385" t="inlineStr">
         <is>
-          <t>D_BALAJITAT001</t>
+          <t>D_ARUNTAT002</t>
         </is>
       </c>
       <c r="Z385" t="inlineStr">
         <is>
-          <t>80A9E09B-E67D-4CBA-99F1-8E1641C602C7</t>
+          <t>30BA712C-4837-4FB5-A875-D39BB5BF81B4</t>
         </is>
       </c>
     </row>
@@ -39043,7 +39043,7 @@
       </c>
       <c r="V386" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W386" t="n">
@@ -39056,12 +39056,12 @@
       </c>
       <c r="Y386" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z386" t="inlineStr">
         <is>
-          <t>512EE157-0E89-4687-A852-B6266388156B</t>
+          <t>45D654E2-6B4B-4F04-9285-CAD27D9385EA</t>
         </is>
       </c>
     </row>
@@ -39143,7 +39143,7 @@
       </c>
       <c r="V387" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W387" t="n">
@@ -39161,7 +39161,7 @@
       </c>
       <c r="Z387" t="inlineStr">
         <is>
-          <t>CF5E8071-2D04-4EBC-A974-E3E295EB72CF</t>
+          <t>BA07C653-E004-49D1-9FA8-090406B30B0C</t>
         </is>
       </c>
     </row>
@@ -39243,7 +39243,7 @@
       </c>
       <c r="V388" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W388" t="n">
@@ -39261,7 +39261,7 @@
       </c>
       <c r="Z388" t="inlineStr">
         <is>
-          <t>97E0AC76-4F79-4196-A85C-4A1FBA1036FF</t>
+          <t>37E2C6BF-B667-4E0D-AC44-4D93F8E4C954</t>
         </is>
       </c>
     </row>
@@ -39343,7 +39343,7 @@
       </c>
       <c r="V389" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W389" t="n">
@@ -39356,12 +39356,12 @@
       </c>
       <c r="Y389" t="inlineStr">
         <is>
-          <t>D_NEHAMER001</t>
+          <t>D_MEERAMER001</t>
         </is>
       </c>
       <c r="Z389" t="inlineStr">
         <is>
-          <t>8A019D4F-E857-4D6B-9A5F-A561B7BD3840</t>
+          <t>9B2D9595-00C3-4D74-B1F4-F9AB127B7AD8</t>
         </is>
       </c>
     </row>
@@ -39443,7 +39443,7 @@
       </c>
       <c r="V390" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W390" t="n">
@@ -39456,12 +39456,12 @@
       </c>
       <c r="Y390" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z390" t="inlineStr">
         <is>
-          <t>295B116B-EF36-4F0B-B324-C9A14343E097</t>
+          <t>47D9F3E7-C7CA-4E1A-B352-BD49B9F5CF7A</t>
         </is>
       </c>
     </row>
@@ -39543,7 +39543,7 @@
       </c>
       <c r="V391" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W391" t="n">
@@ -39556,12 +39556,12 @@
       </c>
       <c r="Y391" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z391" t="inlineStr">
         <is>
-          <t>BACD17F5-8E8F-4E6E-B8AA-0D03FBEA7780</t>
+          <t>56BCFA85-9B06-4E41-B776-D8E5BCF95762</t>
         </is>
       </c>
     </row>
@@ -39643,7 +39643,7 @@
       </c>
       <c r="V392" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W392" t="n">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="Z392" t="inlineStr">
         <is>
-          <t>9977158A-CC2C-480D-B1C6-E09C7A70DD77</t>
+          <t>7E5B91BB-DBCE-4AEE-A719-63A0A44FFB58</t>
         </is>
       </c>
     </row>
@@ -39743,7 +39743,7 @@
       </c>
       <c r="V393" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W393" t="n">
@@ -39761,7 +39761,7 @@
       </c>
       <c r="Z393" t="inlineStr">
         <is>
-          <t>46E4BFA9-EB44-4F14-B73F-AE9A1733AF3F</t>
+          <t>6A4C2048-150E-4407-A0EA-E7852C42C353</t>
         </is>
       </c>
     </row>
@@ -39843,7 +39843,7 @@
       </c>
       <c r="V394" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W394" t="n">
@@ -39856,12 +39856,12 @@
       </c>
       <c r="Y394" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z394" t="inlineStr">
         <is>
-          <t>710EBF79-1C6E-4221-A818-99F5E12F6EFF</t>
+          <t>D1C31701-62C5-4F27-B097-385B7F70EFE1</t>
         </is>
       </c>
     </row>
@@ -39943,7 +39943,7 @@
       </c>
       <c r="V395" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W395" t="n">
@@ -39956,12 +39956,12 @@
       </c>
       <c r="Y395" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z395" t="inlineStr">
         <is>
-          <t>EC9AB602-3F59-4BE5-AFD1-80526BDDE50A</t>
+          <t>A8785989-2256-4AE6-9CD1-49480D7AB6CF</t>
         </is>
       </c>
     </row>
@@ -40043,7 +40043,7 @@
       </c>
       <c r="V396" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W396" t="n">
@@ -40056,12 +40056,12 @@
       </c>
       <c r="Y396" t="inlineStr">
         <is>
-          <t>D_VIDYAMAR001</t>
+          <t>D_POOJAMAR001</t>
         </is>
       </c>
       <c r="Z396" t="inlineStr">
         <is>
-          <t>1135E38D-3948-492C-9DE0-621EC9C9BB4E</t>
+          <t>AD1AE83F-656D-4942-83F6-0D7319BD7464</t>
         </is>
       </c>
     </row>
@@ -40143,7 +40143,7 @@
       </c>
       <c r="V397" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W397" t="n">
@@ -40161,7 +40161,7 @@
       </c>
       <c r="Z397" t="inlineStr">
         <is>
-          <t>8934EBE7-97F6-453E-9112-22884B56FB77</t>
+          <t>385E7458-D624-4B08-ADB7-159826CD8BF5</t>
         </is>
       </c>
     </row>
@@ -40243,7 +40243,7 @@
       </c>
       <c r="V398" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W398" t="n">
@@ -40256,12 +40256,12 @@
       </c>
       <c r="Y398" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z398" t="inlineStr">
         <is>
-          <t>4E065908-4109-4183-BC5A-B07533151628</t>
+          <t>8EF8F7AB-8451-4A4A-9CD1-EC2B17E32CB8</t>
         </is>
       </c>
     </row>
@@ -40343,7 +40343,7 @@
       </c>
       <c r="V399" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W399" t="n">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="Z399" t="inlineStr">
         <is>
-          <t>0E3898B3-ECB7-4075-959C-28CE195DF76E</t>
+          <t>08064846-4884-454D-B505-86E2A565FE0E</t>
         </is>
       </c>
     </row>
@@ -40443,7 +40443,7 @@
       </c>
       <c r="V400" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W400" t="n">
@@ -40456,12 +40456,12 @@
       </c>
       <c r="Y400" t="inlineStr">
         <is>
-          <t>D_SIVAKUMARMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z400" t="inlineStr">
         <is>
-          <t>4DCB6BE3-4950-442B-A2C5-594B2CE90A1E</t>
+          <t>8DEECCE5-83A0-401E-90DA-638A690A1CB8</t>
         </is>
       </c>
     </row>
@@ -40543,7 +40543,7 @@
       </c>
       <c r="V401" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W401" t="n">
@@ -40556,12 +40556,12 @@
       </c>
       <c r="Y401" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z401" t="inlineStr">
         <is>
-          <t>DD94B562-38F4-42A7-A461-2F944A432082</t>
+          <t>B2677126-CDA6-4304-B9F0-7EA39ACA5995</t>
         </is>
       </c>
     </row>
@@ -40643,7 +40643,7 @@
       </c>
       <c r="V402" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W402" t="n">
@@ -40656,12 +40656,12 @@
       </c>
       <c r="Y402" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SNEHAMAH001</t>
         </is>
       </c>
       <c r="Z402" t="inlineStr">
         <is>
-          <t>A4C429AB-61BC-4458-8462-032C8310BAF6</t>
+          <t>41BB3F4A-E278-4CEE-A0F4-B73CC8DC07EC</t>
         </is>
       </c>
     </row>
@@ -40743,7 +40743,7 @@
       </c>
       <c r="V403" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W403" t="n">
@@ -40756,12 +40756,12 @@
       </c>
       <c r="Y403" t="inlineStr">
         <is>
-          <t>D_RITUMAH001</t>
+          <t>D_SIVAKUMARMAH001</t>
         </is>
       </c>
       <c r="Z403" t="inlineStr">
         <is>
-          <t>D74D7BC8-B84B-4A65-8A23-DD07C6087F7D</t>
+          <t>BF1CE4BE-DB11-4A43-AC82-9193194E1C12</t>
         </is>
       </c>
     </row>
@@ -40843,7 +40843,7 @@
       </c>
       <c r="V404" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W404" t="n">
@@ -40861,7 +40861,7 @@
       </c>
       <c r="Z404" t="inlineStr">
         <is>
-          <t>7ADC2114-0A1E-42AC-9672-2DD44E910CC6</t>
+          <t>1DB67510-AD35-4DDD-AA89-AC96EEC26DDC</t>
         </is>
       </c>
     </row>
@@ -40943,7 +40943,7 @@
       </c>
       <c r="V405" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W405" t="n">
@@ -40956,12 +40956,12 @@
       </c>
       <c r="Y405" t="inlineStr">
         <is>
-          <t>D_SNEHAMAH001</t>
+          <t>D_RITUMAH001</t>
         </is>
       </c>
       <c r="Z405" t="inlineStr">
         <is>
-          <t>E4107D7C-F3BA-4459-94E3-AD70A2B48F51</t>
+          <t>25DF7DBB-6328-4044-B73C-8CA04C42F872</t>
         </is>
       </c>
     </row>
@@ -41043,7 +41043,7 @@
       </c>
       <c r="V406" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W406" t="n">
@@ -41061,7 +41061,7 @@
       </c>
       <c r="Z406" t="inlineStr">
         <is>
-          <t>A38DBA5B-CBC2-42DF-8686-98699D851F2E</t>
+          <t>F3A3EC76-D06F-463C-ADF2-047E9B62BA62</t>
         </is>
       </c>
     </row>
@@ -41143,7 +41143,7 @@
       </c>
       <c r="V407" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W407" t="n">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="Z407" t="inlineStr">
         <is>
-          <t>235167E6-133C-4D41-B9EC-BFDF6E5E6BBC</t>
+          <t>9635C27A-5E74-42AF-A15A-D1E7677D8F75</t>
         </is>
       </c>
     </row>
@@ -41243,7 +41243,7 @@
       </c>
       <c r="V408" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W408" t="n">
@@ -41261,7 +41261,7 @@
       </c>
       <c r="Z408" t="inlineStr">
         <is>
-          <t>4F82F7D9-1734-4071-98F7-78D29643A6D9</t>
+          <t>13F61C23-A483-4C6E-A3B7-27A8FCD63475</t>
         </is>
       </c>
     </row>
@@ -41343,7 +41343,7 @@
       </c>
       <c r="V409" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W409" t="n">
@@ -41361,7 +41361,7 @@
       </c>
       <c r="Z409" t="inlineStr">
         <is>
-          <t>7993D907-80EA-41DE-9BE1-6A35EE2DC781</t>
+          <t>9CA5AF1D-D1A3-4DCB-9553-ABE03629BE30</t>
         </is>
       </c>
     </row>
@@ -41443,7 +41443,7 @@
       </c>
       <c r="V410" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W410" t="n">
@@ -41456,12 +41456,12 @@
       </c>
       <c r="Y410" t="inlineStr">
         <is>
-          <t>D_DIVYATOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z410" t="inlineStr">
         <is>
-          <t>929DD02F-A18E-41A7-8FE1-1A63552C17D9</t>
+          <t>E64176D6-0745-42F0-A94A-D52EE1D2C435</t>
         </is>
       </c>
     </row>
@@ -41543,7 +41543,7 @@
       </c>
       <c r="V411" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W411" t="n">
@@ -41561,7 +41561,7 @@
       </c>
       <c r="Z411" t="inlineStr">
         <is>
-          <t>B17A71D7-4F3F-4F97-A034-943521A22BA4</t>
+          <t>A6DBBF3C-D53A-4703-8270-266B18638BF4</t>
         </is>
       </c>
     </row>
@@ -41643,7 +41643,7 @@
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W412" t="n">
@@ -41661,7 +41661,7 @@
       </c>
       <c r="Z412" t="inlineStr">
         <is>
-          <t>19A3A3ED-136F-4CD7-8779-38883B734589</t>
+          <t>86048CEF-CBA0-4F01-9B46-36DCCF8D20BD</t>
         </is>
       </c>
     </row>
@@ -41743,7 +41743,7 @@
       </c>
       <c r="V413" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W413" t="n">
@@ -41756,12 +41756,12 @@
       </c>
       <c r="Y413" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z413" t="inlineStr">
         <is>
-          <t>467C360C-1671-4B22-AF90-699EA1E9B49F</t>
+          <t>CA62C277-FB34-4129-99E6-5A4D285C128F</t>
         </is>
       </c>
     </row>
@@ -41843,7 +41843,7 @@
       </c>
       <c r="V414" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W414" t="n">
@@ -41861,7 +41861,7 @@
       </c>
       <c r="Z414" t="inlineStr">
         <is>
-          <t>FC218E81-EA9C-4949-B184-26AC9E491A94</t>
+          <t>8D0862DD-1833-4390-BC54-CC17BA290420</t>
         </is>
       </c>
     </row>
@@ -41943,7 +41943,7 @@
       </c>
       <c r="V415" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W415" t="n">
@@ -41956,12 +41956,12 @@
       </c>
       <c r="Y415" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z415" t="inlineStr">
         <is>
-          <t>7BCBA9D8-15EB-498A-AE5C-6D963912110D</t>
+          <t>1BEF57FD-06A1-49C4-AFC9-2F763C6EAE85</t>
         </is>
       </c>
     </row>
@@ -42043,7 +42043,7 @@
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="W416" t="n">
@@ -42056,12 +42056,12 @@
       </c>
       <c r="Y416" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z416" t="inlineStr">
         <is>
-          <t>C90A0D28-5E1C-41F7-ACAC-9A53078E6A9A</t>
+          <t>B4687567-55BA-4507-BBAC-A6B93BFADB58</t>
         </is>
       </c>
     </row>
@@ -42143,7 +42143,7 @@
       </c>
       <c r="V417" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W417" t="n">
@@ -42156,12 +42156,12 @@
       </c>
       <c r="Y417" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z417" t="inlineStr">
         <is>
-          <t>8E6D2FE8-FF22-4F26-94AD-DE7D91472EB6</t>
+          <t>243C1E3A-F2E7-44C7-B248-3DC4D4355154</t>
         </is>
       </c>
     </row>
@@ -42256,12 +42256,12 @@
       </c>
       <c r="Y418" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z418" t="inlineStr">
         <is>
-          <t>FBD4DFA6-6321-49D3-9E12-14679EA99A56</t>
+          <t>7AC7D09B-1C6C-4440-9DAD-A843DA08F875</t>
         </is>
       </c>
     </row>
@@ -42343,7 +42343,7 @@
       </c>
       <c r="V419" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W419" t="n">
@@ -42356,12 +42356,12 @@
       </c>
       <c r="Y419" t="inlineStr">
         <is>
-          <t>D_ANJALITOY001</t>
+          <t>D_DIVYATOY001</t>
         </is>
       </c>
       <c r="Z419" t="inlineStr">
         <is>
-          <t>3E66E405-A3C8-4B30-997B-4E91C5417DD2</t>
+          <t>01C5B379-7BF7-43EB-AC17-5470CFECB6F9</t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="Z420" t="inlineStr">
         <is>
-          <t>FAFE366E-B522-4880-BE32-ECCE434FD894</t>
+          <t>ADD9ED01-F693-47C7-8B53-52E283DD0D4F</t>
         </is>
       </c>
     </row>
@@ -42543,7 +42543,7 @@
       </c>
       <c r="V421" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W421" t="n">
@@ -42556,12 +42556,12 @@
       </c>
       <c r="Y421" t="inlineStr">
         <is>
-          <t>D_SENTHILTOY001</t>
+          <t>D_ANJALITOY001</t>
         </is>
       </c>
       <c r="Z421" t="inlineStr">
         <is>
-          <t>2AAAF2AD-E0FC-434C-8560-F27A0000033C</t>
+          <t>E2F436B4-AA66-4A98-8338-F423876AB742</t>
         </is>
       </c>
     </row>
@@ -42643,7 +42643,7 @@
       </c>
       <c r="V422" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>White</t>
         </is>
       </c>
       <c r="W422" t="n">
@@ -42656,12 +42656,12 @@
       </c>
       <c r="Y422" t="inlineStr">
         <is>
-          <t>D_NEHAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z422" t="inlineStr">
         <is>
-          <t>CEFE92E1-6A68-47C8-B9B9-924C68B12D23</t>
+          <t>C183551C-DDE9-4758-B9B7-FDC17E964E12</t>
         </is>
       </c>
     </row>
@@ -42743,7 +42743,7 @@
       </c>
       <c r="V423" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="W423" t="n">
@@ -42756,12 +42756,12 @@
       </c>
       <c r="Y423" t="inlineStr">
         <is>
-          <t>D_MEERAMER001</t>
+          <t>D_GOPINATHMER001</t>
         </is>
       </c>
       <c r="Z423" t="inlineStr">
         <is>
-          <t>E8CB761C-067C-4BE6-B893-B743B4352C85</t>
+          <t>61BD1754-56E3-4FA9-9683-277C6A358EBD</t>
         </is>
       </c>
     </row>
@@ -42843,7 +42843,7 @@
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W424" t="n">
@@ -42856,12 +42856,12 @@
       </c>
       <c r="Y424" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z424" t="inlineStr">
         <is>
-          <t>780CF7BA-7783-40D2-8CAD-2F0C1A097C16</t>
+          <t>CBE22AD6-1ED3-4DD9-A391-A7CD9D52C3EF</t>
         </is>
       </c>
     </row>
@@ -42943,7 +42943,7 @@
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W425" t="n">
@@ -42961,7 +42961,7 @@
       </c>
       <c r="Z425" t="inlineStr">
         <is>
-          <t>3DC5D1D4-F924-4397-BAC8-74152C831B48</t>
+          <t>F1B3C7ED-50EE-4923-B9A9-7B9114E94AA1</t>
         </is>
       </c>
     </row>
@@ -43043,7 +43043,7 @@
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="W426" t="n">
@@ -43061,7 +43061,7 @@
       </c>
       <c r="Z426" t="inlineStr">
         <is>
-          <t>181B6D80-E6B3-4F46-BCD0-2515A26BF9A5</t>
+          <t>A2054AB7-A5AE-4B71-B42E-6E283F2977A6</t>
         </is>
       </c>
     </row>
@@ -43143,7 +43143,7 @@
       </c>
       <c r="V427" t="inlineStr">
         <is>
-          <t>Maroon</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="W427" t="n">
@@ -43156,12 +43156,12 @@
       </c>
       <c r="Y427" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z427" t="inlineStr">
         <is>
-          <t>2E9E52B3-7E3A-48BE-BCE3-087D66EB27D2</t>
+          <t>29F06A4D-5365-46CF-B73C-E610A9B10CE3</t>
         </is>
       </c>
     </row>
@@ -43243,7 +43243,7 @@
       </c>
       <c r="V428" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="W428" t="n">
@@ -43256,12 +43256,12 @@
       </c>
       <c r="Y428" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z428" t="inlineStr">
         <is>
-          <t>A85C467D-4203-405F-956C-1802D729DCD7</t>
+          <t>535DD543-D125-4AAA-8568-0FBC0903AC5D</t>
         </is>
       </c>
     </row>
@@ -43343,7 +43343,7 @@
       </c>
       <c r="V429" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W429" t="n">
@@ -43356,12 +43356,12 @@
       </c>
       <c r="Y429" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z429" t="inlineStr">
         <is>
-          <t>99D49FC4-ED19-4568-8630-583E31D20D59</t>
+          <t>9C6707A8-5560-40EE-A342-A7D755754CA2</t>
         </is>
       </c>
     </row>
@@ -43443,7 +43443,7 @@
       </c>
       <c r="V430" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Beige</t>
         </is>
       </c>
       <c r="W430" t="n">
@@ -43461,7 +43461,7 @@
       </c>
       <c r="Z430" t="inlineStr">
         <is>
-          <t>99B42E9F-A236-4C34-B98E-D87485790FE6</t>
+          <t>F63A54F1-A742-47E2-99F7-B87577F22C6D</t>
         </is>
       </c>
     </row>
@@ -43543,7 +43543,7 @@
       </c>
       <c r="V431" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Maroon</t>
         </is>
       </c>
       <c r="W431" t="n">
@@ -43556,12 +43556,12 @@
       </c>
       <c r="Y431" t="inlineStr">
         <is>
-          <t>D_RAMESHMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z431" t="inlineStr">
         <is>
-          <t>AB1016C3-07AB-4F2D-A27B-8CEF18B4E90D</t>
+          <t>18CC7B81-FAAD-4203-B38C-A97F4FDA69E5</t>
         </is>
       </c>
     </row>
@@ -43643,7 +43643,7 @@
       </c>
       <c r="V432" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W432" t="n">
@@ -43656,12 +43656,12 @@
       </c>
       <c r="Y432" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_DEEPAKMAR001</t>
         </is>
       </c>
       <c r="Z432" t="inlineStr">
         <is>
-          <t>0B2C1D09-AE66-4423-BC50-0AEAD3E28990</t>
+          <t>D9B7A685-DBD4-451B-8F7D-66AE7DFE3892</t>
         </is>
       </c>
     </row>
@@ -43743,7 +43743,7 @@
       </c>
       <c r="V433" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W433" t="n">
@@ -43756,12 +43756,12 @@
       </c>
       <c r="Y433" t="inlineStr">
         <is>
-          <t>D_POOJAMAR001</t>
+          <t>D_VIDYAMAR001</t>
         </is>
       </c>
       <c r="Z433" t="inlineStr">
         <is>
-          <t>FC925942-2547-4179-867A-82A2F4191BE7</t>
+          <t>660296DF-EBDB-4501-8F37-C416D0929556</t>
         </is>
       </c>
     </row>
@@ -43843,7 +43843,7 @@
       </c>
       <c r="V434" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="W434" t="n">
@@ -43856,12 +43856,12 @@
       </c>
       <c r="Y434" t="inlineStr">
         <is>
-          <t>D_DEEPAKMAR001</t>
+          <t>D_RAMESHMAR001</t>
         </is>
       </c>
       <c r="Z434" t="inlineStr">
         <is>
-          <t>A070495C-DCBA-4F09-B0E1-6019D88363C2</t>
+          <t>6A99404E-7193-42B2-8591-00B26C9F1AB4</t>
         </is>
       </c>
     </row>
@@ -43943,7 +43943,7 @@
       </c>
       <c r="V435" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="W435" t="n">
@@ -43956,12 +43956,12 @@
       </c>
       <c r="Y435" t="inlineStr">
         <is>
-          <t>D_GOPINATHMER001</t>
+          <t>D_NEHAMER001</t>
         </is>
       </c>
       <c r="Z435" t="inlineStr">
         <is>
-          <t>9DEA1281-C0E7-4666-8265-88443D08A3E7</t>
+          <t>E8333843-063B-4628-BD7D-7C95C1FEEEFC</t>
         </is>
       </c>
     </row>
@@ -44043,7 +44043,7 @@
       </c>
       <c r="V436" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="W436" t="n">
@@ -44061,7 +44061,7 @@
       </c>
       <c r="Z436" t="inlineStr">
         <is>
-          <t>6028D9E7-AE4F-4EE2-88B3-B85EBFD123E5</t>
+          <t>0E0321EA-7EB2-46B6-972B-22BC85AD9E38</t>
         </is>
       </c>
     </row>
@@ -44143,7 +44143,7 @@
       </c>
       <c r="V437" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="W437" t="n">
@@ -44156,12 +44156,12 @@
       </c>
       <c r="Y437" t="inlineStr">
         <is>
-          <t>D_SHANTHIBMW001</t>
+          <t>D_PRAKASHBMW001</t>
         </is>
       </c>
       <c r="Z437" t="inlineStr">
         <is>
-          <t>82D38D2F-D05F-4913-9140-1FED32F2696D</t>
+          <t>593E6D27-38E5-4D6B-A705-DBCDED699B41</t>
         </is>
       </c>
     </row>
